--- a/EDA_Entrega/data/correlation_age_group.xlsx
+++ b/EDA_Entrega/data/correlation_age_group.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:G301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,10 +456,15 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>P_Value</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Regression_Coeff</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Intercept</t>
         </is>
@@ -482,13 +487,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.6553854473920457</v>
+        <v>-0.6299159946238178</v>
       </c>
       <c r="E2" t="n">
-        <v>-23188804.87636039</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1905281016.7942</v>
+        <v>-21470743.88131809</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1792509559.048541</v>
       </c>
     </row>
     <row r="3">
@@ -508,13 +516,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-0.6553854411660267</v>
+        <v>-0.629915988825925</v>
       </c>
       <c r="E3" t="n">
-        <v>-23188.80487404071</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1905280.999439285</v>
+        <v>-21470.74387164033</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1792509.541403482</v>
       </c>
     </row>
     <row r="4">
@@ -534,13 +545,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.106621979921928</v>
+        <v>-0.09051224907047067</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.83555837398703</v>
+        <v>5.713020910434833e-126</v>
       </c>
       <c r="F4" t="n">
-        <v>332.7990478747217</v>
+        <v>-1.190484978093993</v>
+      </c>
+      <c r="G4" t="n">
+        <v>278.0812324378262</v>
       </c>
     </row>
     <row r="5">
@@ -560,13 +574,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.08618646087220871</v>
+        <v>0.04461903748406521</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0006351187043767658</v>
+        <v>5.260767298607163e-29</v>
       </c>
       <c r="F5" t="n">
-        <v>0.008783216044433224</v>
+        <v>0.0003530946348588955</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.02909717240495164</v>
       </c>
     </row>
     <row r="6">
@@ -586,13 +603,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.05760248533251691</v>
+        <v>0.05319069845169651</v>
       </c>
       <c r="E6" t="n">
-        <v>0.001432140521565639</v>
+        <v>1.566386206665534e-40</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1166789998828631</v>
+        <v>0.001108856420821565</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1350077307939808</v>
       </c>
     </row>
     <row r="7">
@@ -612,13 +632,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.1532500776301595</v>
+        <v>-0.1433991669505733</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.00629928762337303</v>
+        <v>3.830441429413083e-292</v>
       </c>
       <c r="F7" t="n">
-        <v>4.385721977296664</v>
+        <v>-0.005945910580028517</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4.363077940066648</v>
       </c>
     </row>
     <row r="8">
@@ -638,13 +661,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-0.05654834500131899</v>
+        <v>-0.0473262185692536</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.2107486467270807</v>
+        <v>3.69515086333628e-33</v>
       </c>
       <c r="F8" t="n">
-        <v>95.49876179288434</v>
+        <v>-0.1875153828081052</v>
+      </c>
+      <c r="G8" t="n">
+        <v>94.52443837096462</v>
       </c>
     </row>
     <row r="9">
@@ -664,13 +690,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.1966715110382637</v>
+        <v>-0.2010986358269491</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.3593782309880026</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>45.81356378506285</v>
+        <v>-0.3401990948194</v>
+      </c>
+      <c r="G9" t="n">
+        <v>44.6169086562597</v>
       </c>
     </row>
     <row r="10">
@@ -690,13 +719,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.02378232696016291</v>
+        <v>-0.004098829198882979</v>
       </c>
       <c r="E10" t="n">
-        <v>0.003298706290370648</v>
+        <v>0.3046977937245431</v>
       </c>
       <c r="F10" t="n">
-        <v>1.779580989374655</v>
+        <v>-0.00142868657124462</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.1285652654258</v>
       </c>
     </row>
     <row r="11">
@@ -716,13 +748,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.1674270115993855</v>
+        <v>0.1110001426840453</v>
       </c>
       <c r="E11" t="n">
-        <v>0.004530396431603106</v>
+        <v>4.379058114075804e-171</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2517891095697664</v>
+        <v>0.003262640056887359</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.337603796123317</v>
       </c>
     </row>
     <row r="12">
@@ -742,13 +777,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.06256684997469711</v>
+        <v>0.04509513775178889</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01213837549536536</v>
+        <v>1.361035232965316e-29</v>
       </c>
       <c r="F12" t="n">
-        <v>3.13845376742356</v>
+        <v>0.008696885375990589</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3.317903245894931</v>
       </c>
     </row>
     <row r="13">
@@ -768,13 +806,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-0.1128147296339576</v>
+        <v>-0.0965001213192056</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2135486150525907</v>
+        <v>2.163574446026176e-131</v>
       </c>
       <c r="F13" t="n">
-        <v>37.63043050216565</v>
+        <v>-0.1600232917047995</v>
+      </c>
+      <c r="G13" t="n">
+        <v>33.90656028337098</v>
       </c>
     </row>
     <row r="14">
@@ -794,13 +835,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.02008782645764909</v>
+        <v>0.03095543065683562</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001529370621225683</v>
+        <v>9.005664454410869e-15</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7673955766861253</v>
+        <v>0.002625623381925592</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.7020918040699802</v>
       </c>
     </row>
     <row r="15">
@@ -820,13 +864,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.0312205240002587</v>
+        <v>0.06036769598670909</v>
       </c>
       <c r="E15" t="n">
-        <v>0.001063613554918022</v>
+        <v>7.44742064737855e-53</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4068724559545056</v>
+        <v>0.002048348981582699</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.3297767082153103</v>
       </c>
     </row>
     <row r="16">
@@ -846,13 +893,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.2367007992068621</v>
+        <v>0.1957095859426503</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1867694130362658</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>4.375381379350506</v>
+        <v>0.1737289941710566</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5.690308094253417</v>
       </c>
     </row>
     <row r="17">
@@ -872,13 +922,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-0.05021882754387177</v>
+        <v>-0.02980652846330559</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.002440104624458675</v>
+        <v>4.372283413254365e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>9.490037306822463</v>
+        <v>-0.00148820939836812</v>
+      </c>
+      <c r="G17" t="n">
+        <v>9.411777720272655</v>
       </c>
     </row>
     <row r="18">
@@ -898,13 +951,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.1040851384162024</v>
+        <v>-0.1124302074956358</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.5343291302338079</v>
+        <v>1.11013619521989e-179</v>
       </c>
       <c r="F18" t="n">
-        <v>224.8520292341893</v>
+        <v>-0.5924831337805272</v>
+      </c>
+      <c r="G18" t="n">
+        <v>228.4493583156041</v>
       </c>
     </row>
     <row r="19">
@@ -924,13 +980,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-0.04878197044436611</v>
+        <v>-0.02197238979095465</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.01901966377030302</v>
+        <v>2.564064081694647e-08</v>
       </c>
       <c r="F19" t="n">
-        <v>102.2031569484182</v>
+        <v>-0.008882621490014009</v>
+      </c>
+      <c r="G19" t="n">
+        <v>101.4543899844077</v>
       </c>
     </row>
     <row r="20">
@@ -950,13 +1009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-0.06742218453547151</v>
+        <v>-0.02886225020260146</v>
       </c>
       <c r="E20" t="n">
-        <v>-3.128867487627683</v>
+        <v>2.593798061923013e-13</v>
       </c>
       <c r="F20" t="n">
-        <v>511.0858903465666</v>
+        <v>-1.363458377534114</v>
+      </c>
+      <c r="G20" t="n">
+        <v>414.0038363732441</v>
       </c>
     </row>
     <row r="21">
@@ -976,13 +1038,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.1140456346613539</v>
+        <v>0.07425353147988259</v>
       </c>
       <c r="E21" t="n">
-        <v>0.03686154336107617</v>
+        <v>4.423564094321101e-79</v>
       </c>
       <c r="F21" t="n">
-        <v>21.55083818121009</v>
+        <v>0.02436251932659691</v>
+      </c>
+      <c r="G21" t="n">
+        <v>22.37276696795354</v>
       </c>
     </row>
     <row r="22">
@@ -1002,13 +1067,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.07061169066243492</v>
+        <v>0.06655150009630659</v>
       </c>
       <c r="E22" t="n">
-        <v>0.004398332133449374</v>
+        <v>5.589508303068003e-64</v>
       </c>
       <c r="F22" t="n">
-        <v>0.62887873415078</v>
+        <v>0.005024609284954179</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.6150817159183035</v>
       </c>
     </row>
     <row r="23">
@@ -1028,13 +1096,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.05550742032948659</v>
+        <v>0.03730588060200207</v>
       </c>
       <c r="E23" t="n">
-        <v>0.07695729967715577</v>
+        <v>3.249171419948432e-21</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.8863596017378281</v>
+        <v>0.05013149247084192</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.067071680363044</v>
       </c>
     </row>
     <row r="24">
@@ -1054,13 +1125,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.2116491169401337</v>
+        <v>0.2130786194567082</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01304871668454747</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2295506529678998</v>
+        <v>0.01489162581125935</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.1242113795626592</v>
       </c>
     </row>
     <row r="25">
@@ -1080,13 +1154,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-0.2324970456667927</v>
+        <v>-0.2504435597069024</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.06625227990076746</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>7.040194272229067</v>
+        <v>-0.0647691433006799</v>
+      </c>
+      <c r="G25" t="n">
+        <v>6.873931084601089</v>
       </c>
     </row>
     <row r="26">
@@ -1106,13 +1183,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.0702262459534663</v>
+        <v>0.0666201326446363</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02064887862083525</v>
+        <v>1.284278380059577e-62</v>
       </c>
       <c r="F26" t="n">
-        <v>1.73181427872491</v>
+        <v>0.01859763601761578</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.872984452459663</v>
       </c>
     </row>
     <row r="27">
@@ -1132,13 +1212,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-0.05463975650905391</v>
+        <v>-0.03277135183338327</v>
       </c>
       <c r="E27" t="n">
-        <v>-1.341556241949808</v>
+        <v>1.010783789065109e-16</v>
       </c>
       <c r="F27" t="n">
-        <v>245.2434949111254</v>
+        <v>-0.7287338867567345</v>
+      </c>
+      <c r="G27" t="n">
+        <v>202.1735670239228</v>
       </c>
     </row>
     <row r="28">
@@ -1158,13 +1241,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>-0.0459510509454558</v>
+        <v>-0.02143407512373542</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.2168682410842703</v>
+        <v>5.855170996348589e-08</v>
       </c>
       <c r="F28" t="n">
-        <v>122.6362940499089</v>
+        <v>-0.1183629678957484</v>
+      </c>
+      <c r="G28" t="n">
+        <v>119.4583250209689</v>
       </c>
     </row>
     <row r="29">
@@ -1184,13 +1270,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-0.1013832731675619</v>
+        <v>-0.1293824208811886</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.05180293196600969</v>
+        <v>9.120710118677523e-233</v>
       </c>
       <c r="F29" t="n">
-        <v>45.62186834960828</v>
+        <v>-0.06983167126601258</v>
+      </c>
+      <c r="G29" t="n">
+        <v>46.57753441205945</v>
       </c>
     </row>
     <row r="30">
@@ -1210,13 +1299,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.009434499160756449</v>
+        <v>0.01187716119567554</v>
       </c>
       <c r="E30" t="n">
-        <v>0.02506929250915426</v>
+        <v>0.002612375871254136</v>
       </c>
       <c r="F30" t="n">
-        <v>56.49879711636076</v>
+        <v>0.03045623776321395</v>
+      </c>
+      <c r="G30" t="n">
+        <v>54.61504854227311</v>
       </c>
     </row>
     <row r="31">
@@ -1236,13 +1328,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-0.1342164432214345</v>
+        <v>-0.15719429822046</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.02353966077215767</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>15.4123293537041</v>
+        <v>-0.02978535488882793</v>
+      </c>
+      <c r="G31" t="n">
+        <v>15.725179347597</v>
       </c>
     </row>
     <row r="32">
@@ -1262,13 +1357,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.05513112639284292</v>
+        <v>0.06038652594647621</v>
       </c>
       <c r="E32" t="n">
-        <v>0.003233618864788054</v>
+        <v>8.607768467588654e-53</v>
       </c>
       <c r="F32" t="n">
-        <v>3.990891076547263</v>
+        <v>0.003448065844487906</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3.955924975330829</v>
       </c>
     </row>
     <row r="33">
@@ -1288,13 +1386,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>-0.08931428354841497</v>
+        <v>-0.1071385129061413</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.4068470212878989</v>
+        <v>3.117167193339352e-159</v>
       </c>
       <c r="F33" t="n">
-        <v>130.1769652620004</v>
+        <v>-0.4842380446992216</v>
+      </c>
+      <c r="G33" t="n">
+        <v>134.9942464710784</v>
       </c>
     </row>
     <row r="34">
@@ -1314,13 +1415,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-0.09140096541675102</v>
+        <v>-0.1339092809780691</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.109943236652146</v>
+        <v>9.700282916821578e-249</v>
       </c>
       <c r="F34" t="n">
-        <v>37.40553723175119</v>
+        <v>-0.1603973758738533</v>
+      </c>
+      <c r="G34" t="n">
+        <v>41.11994405819293</v>
       </c>
     </row>
     <row r="35">
@@ -1340,13 +1444,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.07345912775781303</v>
+        <v>0.08144216077444848</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01869014292443309</v>
+        <v>9.993946746913071e-93</v>
       </c>
       <c r="F35" t="n">
-        <v>29.32038036775824</v>
+        <v>0.02239824553691758</v>
+      </c>
+      <c r="G35" t="n">
+        <v>28.90339390156619</v>
       </c>
     </row>
     <row r="36">
@@ -1366,13 +1473,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-0.1090356473749738</v>
+        <v>-0.09290475216238567</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.01622783005117041</v>
+        <v>1.729867957369037e-119</v>
       </c>
       <c r="F36" t="n">
-        <v>33.91607400991595</v>
+        <v>-0.01442969206865996</v>
+      </c>
+      <c r="G36" t="n">
+        <v>33.75668422413052</v>
       </c>
     </row>
     <row r="37">
@@ -1392,13 +1502,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.1483238183642404</v>
+        <v>0.1522872433912772</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1065520335902184</v>
+        <v>9.881312916824931e-323</v>
       </c>
       <c r="F37" t="n">
-        <v>86.06861470790534</v>
+        <v>0.1249510065255006</v>
+      </c>
+      <c r="G37" t="n">
+        <v>84.42291540133687</v>
       </c>
     </row>
     <row r="38">
@@ -1418,13 +1531,16 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.1535988922822882</v>
+        <v>0.1382566880450299</v>
       </c>
       <c r="E38" t="n">
-        <v>0.04654566048548565</v>
+        <v>3.607076593537898e-265</v>
       </c>
       <c r="F38" t="n">
-        <v>5.145958495409126</v>
+        <v>0.04277442339964894</v>
+      </c>
+      <c r="G38" t="n">
+        <v>5.47491585416754</v>
       </c>
     </row>
     <row r="39">
@@ -1444,13 +1560,16 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.0220464742100892</v>
+        <v>0.008340073675546325</v>
       </c>
       <c r="E39" t="n">
-        <v>0.002814904866401438</v>
+        <v>0.0376374162654433</v>
       </c>
       <c r="F39" t="n">
-        <v>11.0306528444151</v>
+        <v>0.00109122058549953</v>
+      </c>
+      <c r="G39" t="n">
+        <v>11.17316008025025</v>
       </c>
     </row>
     <row r="40">
@@ -1470,13 +1589,16 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>-0.03727770338668579</v>
+        <v>-0.01005297615182323</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.0133428064771162</v>
+        <v>0.01084462889472118</v>
       </c>
       <c r="F40" t="n">
-        <v>140.6754628535529</v>
+        <v>-0.003702760921500482</v>
+      </c>
+      <c r="G40" t="n">
+        <v>139.7901675270408</v>
       </c>
     </row>
     <row r="41">
@@ -1496,13 +1618,16 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.03085953870739079</v>
+        <v>0.07501543307786412</v>
       </c>
       <c r="E41" t="n">
-        <v>0.04006261370959351</v>
+        <v>6.364215776726574e-79</v>
       </c>
       <c r="F41" t="n">
-        <v>55.0341579124898</v>
+        <v>0.0958455399638595</v>
+      </c>
+      <c r="G41" t="n">
+        <v>50.87709927437335</v>
       </c>
     </row>
     <row r="42">
@@ -1522,13 +1647,16 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.1815809945897776</v>
+        <v>0.09106748286887795</v>
       </c>
       <c r="E42" t="n">
-        <v>16.42305356902118</v>
+        <v>1.863462044360761e-116</v>
       </c>
       <c r="F42" t="n">
-        <v>-895.0327117984816</v>
+        <v>20.86491561716183</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-1134.600885068876</v>
       </c>
     </row>
     <row r="43">
@@ -1548,13 +1676,16 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.02737431195421411</v>
+        <v>0.01193292259492647</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0082258171291828</v>
+        <v>0.002940346172295356</v>
       </c>
       <c r="F43" t="n">
-        <v>13.33864855952604</v>
+        <v>0.003700307816663059</v>
+      </c>
+      <c r="G43" t="n">
+        <v>13.69561647849047</v>
       </c>
     </row>
     <row r="44">
@@ -1574,13 +1705,16 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>-0.08653838938201756</v>
+        <v>-0.1023867853882428</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.7304946657337729</v>
+        <v>6.686917057068599e-146</v>
       </c>
       <c r="F44" t="n">
-        <v>283.991688229267</v>
+        <v>-0.8656146980077939</v>
+      </c>
+      <c r="G44" t="n">
+        <v>289.0116977936569</v>
       </c>
     </row>
     <row r="45">
@@ -1600,13 +1734,16 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>-0.174308494114803</v>
+        <v>-0.2055762059165012</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.01089298963151415</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>5.269502394337611</v>
+        <v>-0.01334808053332229</v>
+      </c>
+      <c r="G45" t="n">
+        <v>5.427561750362189</v>
       </c>
     </row>
     <row r="46">
@@ -1626,13 +1763,16 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.0307702738607018</v>
+        <v>0.06857201244350605</v>
       </c>
       <c r="E46" t="n">
-        <v>0.004953081006994689</v>
+        <v>2.170584125979117e-66</v>
       </c>
       <c r="F46" t="n">
-        <v>13.5837944390325</v>
+        <v>0.01259586752775102</v>
+      </c>
+      <c r="G46" t="n">
+        <v>13.12523510848691</v>
       </c>
     </row>
     <row r="47">
@@ -1652,13 +1792,16 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>-0.09007384255678801</v>
+        <v>-0.06751544566213956</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.7518717860798791</v>
+        <v>8.995785152428839e-66</v>
       </c>
       <c r="F47" t="n">
-        <v>190.553106981447</v>
+        <v>-0.8499184904789672</v>
+      </c>
+      <c r="G47" t="n">
+        <v>209.5414205592644</v>
       </c>
     </row>
     <row r="48">
@@ -1678,13 +1821,16 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-0.1797280259555448</v>
+        <v>-0.1643447257487878</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.01022681812457713</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>7.591773773116714</v>
+        <v>-0.009439583805764772</v>
+      </c>
+      <c r="G48" t="n">
+        <v>7.539986414940363</v>
       </c>
     </row>
     <row r="49">
@@ -1704,13 +1850,16 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.0832399092560781</v>
+        <v>0.02987471504181309</v>
       </c>
       <c r="E49" t="n">
-        <v>0.02213801467456216</v>
+        <v>7.272464325492333e-14</v>
       </c>
       <c r="F49" t="n">
-        <v>5.279954693317427</v>
+        <v>0.01251757887375634</v>
+      </c>
+      <c r="G49" t="n">
+        <v>5.902865345357984</v>
       </c>
     </row>
     <row r="50">
@@ -1730,13 +1879,16 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>-0.006072585005342558</v>
+        <v>0.004978137254115922</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.004741017367975154</v>
+        <v>0.2091968974991215</v>
       </c>
       <c r="F50" t="n">
-        <v>2.313529383505606</v>
+        <v>0.003995029985182394</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1.699331980180508</v>
       </c>
     </row>
     <row r="51">
@@ -1756,13 +1908,16 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.09763716459531047</v>
+        <v>0.1154960195306964</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1628856063225252</v>
+        <v>7.48934294215546e-188</v>
       </c>
       <c r="F51" t="n">
-        <v>19.99422510637199</v>
+        <v>0.1938853452218649</v>
+      </c>
+      <c r="G51" t="n">
+        <v>17.29601218203444</v>
       </c>
     </row>
     <row r="52">
@@ -1782,13 +1937,16 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-0.1539965899704408</v>
+        <v>-0.1630042754603722</v>
       </c>
       <c r="E52" t="n">
-        <v>-288.9789260563397</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>69119.24197942863</v>
+        <v>-298.8608427141521</v>
+      </c>
+      <c r="G52" t="n">
+        <v>68726.34018164258</v>
       </c>
     </row>
     <row r="53">
@@ -1808,13 +1966,16 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.01495113661952302</v>
+        <v>0.02684075392135304</v>
       </c>
       <c r="E53" t="n">
-        <v>0.02521228893258138</v>
+        <v>1.100514002122419e-11</v>
       </c>
       <c r="F53" t="n">
-        <v>2.425058495155043</v>
+        <v>0.03356260021853389</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.783389770775544</v>
       </c>
     </row>
     <row r="54">
@@ -1834,13 +1995,16 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>-0.05531824038733454</v>
+        <v>-0.02334234340379502</v>
       </c>
       <c r="E54" t="n">
-        <v>-2.473038146928206</v>
+        <v>3.482109099433315e-09</v>
       </c>
       <c r="F54" t="n">
-        <v>745.5340239941353</v>
+        <v>-1.3943071475753</v>
+      </c>
+      <c r="G54" t="n">
+        <v>695.143188407844</v>
       </c>
     </row>
     <row r="55">
@@ -1860,13 +2024,16 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.05393773944380435</v>
+        <v>0.03902456878765481</v>
       </c>
       <c r="E55" t="n">
-        <v>0.07491488002542988</v>
+        <v>5.180754355215545e-23</v>
       </c>
       <c r="F55" t="n">
-        <v>0.5262516102239161</v>
+        <v>0.3087581062387931</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-13.73784993579221</v>
       </c>
     </row>
     <row r="56">
@@ -1886,13 +2053,16 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.08155525717377468</v>
+        <v>0.09259798744833039</v>
       </c>
       <c r="E56" t="n">
-        <v>16.39722043567384</v>
+        <v>6.46854138868219e-122</v>
       </c>
       <c r="F56" t="n">
-        <v>663.2868265280654</v>
+        <v>21.91156876755124</v>
+      </c>
+      <c r="G56" t="n">
+        <v>352.4471589519144</v>
       </c>
     </row>
     <row r="57">
@@ -1912,13 +2082,16 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>-0.08178350702367218</v>
+        <v>-0.1468617068178426</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.3874801882728391</v>
+        <v>1.703855073855379e-305</v>
       </c>
       <c r="F57" t="n">
-        <v>128.8207050612931</v>
+        <v>-0.7207749912902962</v>
+      </c>
+      <c r="G57" t="n">
+        <v>152.986976862698</v>
       </c>
     </row>
     <row r="58">
@@ -1938,13 +2111,16 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>-0.001816623613868225</v>
+        <v>-0.004392488609903071</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.0001272826863305073</v>
+        <v>0.333481285979405</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9185463162502613</v>
+        <v>-0.0002840883099481409</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.940037786586171</v>
       </c>
     </row>
     <row r="59">
@@ -1964,13 +2140,16 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.04695244443243453</v>
+        <v>0.06819955154637486</v>
       </c>
       <c r="E59" t="n">
-        <v>0.03356515787707773</v>
+        <v>7.739601507674977e-54</v>
       </c>
       <c r="F59" t="n">
-        <v>10.83879548425586</v>
+        <v>0.04696370694554375</v>
+      </c>
+      <c r="G59" t="n">
+        <v>9.834216811596988</v>
       </c>
     </row>
     <row r="60">
@@ -1990,13 +2169,16 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>-0.104549259209889</v>
+        <v>-0.143156427858206</v>
       </c>
       <c r="E60" t="n">
-        <v>-131.293306257448</v>
+        <v>9.652265003276705e-236</v>
       </c>
       <c r="F60" t="n">
-        <v>45777.03692142567</v>
+        <v>-186.1374909775759</v>
+      </c>
+      <c r="G60" t="n">
+        <v>49152.05025012167</v>
       </c>
     </row>
     <row r="61">
@@ -2016,13 +2198,16 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>-0.02087918928098462</v>
+        <v>-0.02118329101449214</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.1806259436398821</v>
+        <v>1.387280946911285e-06</v>
       </c>
       <c r="F61" t="n">
-        <v>235.3372753742545</v>
+        <v>-0.1722006470420818</v>
+      </c>
+      <c r="G61" t="n">
+        <v>235.131834696888</v>
       </c>
     </row>
     <row r="62">
@@ -2042,13 +2227,16 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.1179360914592599</v>
+        <v>0.04287799022036085</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0005548961182380926</v>
+        <v>1.611949446483061e-25</v>
       </c>
       <c r="F62" t="n">
-        <v>0.01093534101640718</v>
+        <v>0.0002246314206286477</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03498936289972928</v>
       </c>
     </row>
     <row r="63">
@@ -2068,13 +2256,16 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.132836785809045</v>
+        <v>0.04517698068205084</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0005152470875891043</v>
+        <v>3.860150812602208e-28</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.0003016433424061216</v>
+        <v>0.0001811865555413343</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.02387050901795338</v>
       </c>
     </row>
     <row r="64">
@@ -2094,13 +2285,16 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.1000801191134769</v>
+        <v>0.02756825920758765</v>
       </c>
       <c r="E64" t="n">
-        <v>6.519849864082315e-05</v>
+        <v>1.948911040356199e-11</v>
       </c>
       <c r="F64" t="n">
-        <v>0.001952136486766325</v>
+        <v>2.66791058696751e-05</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.004995870372819063</v>
       </c>
     </row>
     <row r="65">
@@ -2120,13 +2314,16 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.07857029003974349</v>
+        <v>0.08339384303124189</v>
       </c>
       <c r="E65" t="n">
-        <v>0.001872010283923318</v>
+        <v>6.594531090137945e-92</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1085547409983109</v>
+        <v>0.00193464252835995</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.09631048730986333</v>
       </c>
     </row>
     <row r="66">
@@ -2146,13 +2343,16 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>-0.007689791209073288</v>
+        <v>0.02403852249817051</v>
       </c>
       <c r="E66" t="n">
-        <v>-2.254949532956639e-06</v>
+        <v>4.891227697993017e-09</v>
       </c>
       <c r="F66" t="n">
-        <v>0.001888120543351101</v>
+        <v>7.79295060615983e-06</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.001113656792726831</v>
       </c>
     </row>
     <row r="67">
@@ -2172,13 +2372,16 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.07886705065136349</v>
+        <v>0.07950371602181375</v>
       </c>
       <c r="E67" t="n">
-        <v>0.001815601867813306</v>
+        <v>1.16970537815094e-83</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1001552681016934</v>
+        <v>0.001772977596749412</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.09472207654040576</v>
       </c>
     </row>
     <row r="68">
@@ -2198,13 +2401,16 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.1042848289254691</v>
+        <v>0.09142238233280384</v>
       </c>
       <c r="E68" t="n">
-        <v>0.001930139378073564</v>
+        <v>3.850784614901398e-110</v>
       </c>
       <c r="F68" t="n">
-        <v>0.06281181597902744</v>
+        <v>0.00185204535868467</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.06751496754710376</v>
       </c>
     </row>
     <row r="69">
@@ -2224,13 +2430,16 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.100229631349412</v>
+        <v>0.08697750003621266</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001775708866538675</v>
+        <v>8.085592332305765e-100</v>
       </c>
       <c r="F69" t="n">
-        <v>0.06384482516967856</v>
+        <v>0.001669228739296866</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.06994379082551724</v>
       </c>
     </row>
     <row r="70">
@@ -2250,13 +2459,16 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.1163944551749753</v>
+        <v>0.0811406366731479</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0001376858118346674</v>
+        <v>4.449801890352291e-87</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.002102931730472702</v>
+        <v>0.0001688211315790549</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-0.003856603348312896</v>
       </c>
     </row>
     <row r="71">
@@ -2276,13 +2488,16 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.04073808355911659</v>
+        <v>0.01437576837668901</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0007216545045356113</v>
+        <v>0.0004052572289609184</v>
       </c>
       <c r="F71" t="n">
-        <v>0.6608776217188543</v>
+        <v>0.0002402141222904557</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.6967898189832168</v>
       </c>
     </row>
     <row r="72">
@@ -2302,13 +2517,16 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>-0.01966978947784373</v>
+        <v>-0.01383852765999418</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.0002223184486331664</v>
+        <v>0.0006629625426103666</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1664768410180188</v>
+        <v>-0.0001640394696793352</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.1656862627946445</v>
       </c>
     </row>
     <row r="73">
@@ -2328,13 +2546,16 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>-0.0712072173690796</v>
+        <v>-0.03127802392381766</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.0001210037843648002</v>
+        <v>1.394971745371083e-14</v>
       </c>
       <c r="F73" t="n">
-        <v>0.01708772765901099</v>
+        <v>-5.96511797310445e-05</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.01262882148710741</v>
       </c>
     </row>
     <row r="74">
@@ -2354,13 +2575,16 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>-0.006551443437046292</v>
+        <v>-0.009017825218528846</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.349854637253934e-05</v>
+        <v>0.02651490969854503</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9425717932207246</v>
+        <v>-8.323332628931444e-05</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.9402629447526814</v>
       </c>
     </row>
     <row r="75">
@@ -2380,13 +2604,16 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>-0.02228694157720993</v>
+        <v>-0.01693102600515406</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.0002126625678413503</v>
+        <v>3.102687281622791e-05</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9692498327161412</v>
+        <v>-0.0001767729160169234</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.9651038230399769</v>
       </c>
     </row>
     <row r="76">
@@ -2406,13 +2633,16 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.05125045493672725</v>
+        <v>0.06328910490877872</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0002220064884050743</v>
+        <v>8.995197162751878e-55</v>
       </c>
       <c r="F76" t="n">
-        <v>0.02335396535817809</v>
+        <v>0.0003648158746549615</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.01419438454137094</v>
       </c>
     </row>
     <row r="77">
@@ -2432,13 +2662,16 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>-0.01004201722320107</v>
+        <v>0.008353125726319958</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.0003083390186040208</v>
+        <v>0.04088434364663573</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1584227736393317</v>
+        <v>0.002535255336443872</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.002525459537195268</v>
       </c>
     </row>
     <row r="78">
@@ -2458,13 +2691,16 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>-0.04833076966525326</v>
+        <v>-0.04311970785742723</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.0001935704202041956</v>
+        <v>3.133137150811676e-21</v>
       </c>
       <c r="F78" t="n">
-        <v>0.04184422875164226</v>
+        <v>-0.0001584723824359759</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.03854782360600172</v>
       </c>
     </row>
     <row r="79">
@@ -2484,13 +2720,16 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>-0.1390025595544429</v>
+        <v>-0.1757987857580302</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.003428656453126491</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0.5916781037479545</v>
+        <v>-0.004463822629902455</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.6515242828028938</v>
       </c>
     </row>
     <row r="80">
@@ -2510,13 +2749,16 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>-0.09476086602394659</v>
+        <v>-0.06226012632678046</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.002827337497287127</v>
+        <v>1.531074299078332e-52</v>
       </c>
       <c r="F80" t="n">
-        <v>0.528562050931571</v>
+        <v>-0.002081857335745986</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.4900684679615647</v>
       </c>
     </row>
     <row r="81">
@@ -2536,13 +2778,16 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>-0.08292013392714792</v>
+        <v>-0.06257263773660569</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.00049932258262763</v>
+        <v>7.51672818460671e-53</v>
       </c>
       <c r="F81" t="n">
-        <v>0.05982083583805246</v>
+        <v>-0.0005596045337327486</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.07377168786950697</v>
       </c>
     </row>
     <row r="82">
@@ -2562,13 +2807,16 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>-0.09237037716475388</v>
+        <v>-0.150922328851772</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.005315649288793453</v>
+        <v>3.568189580775372e-302</v>
       </c>
       <c r="F82" t="n">
-        <v>1.304246294877359</v>
+        <v>-0.009077284916242141</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1.5732705147541</v>
       </c>
     </row>
     <row r="83">
@@ -2588,13 +2836,16 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.01541037352647326</v>
+        <v>-0.006647832385883342</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0002249652890871188</v>
+        <v>0.1040738689703867</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002207659954179111</v>
+        <v>-0.0001046065209252494</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.02553041213810457</v>
       </c>
     </row>
     <row r="84">
@@ -2614,13 +2865,16 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>-0.001149454640347852</v>
+        <v>0.01396666107286455</v>
       </c>
       <c r="E84" t="n">
-        <v>-2.912442026378123e-06</v>
+        <v>0.0006377678460338938</v>
       </c>
       <c r="F84" t="n">
-        <v>0.01506896333008289</v>
+        <v>0.004024085149269865</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-0.2391674793048779</v>
       </c>
     </row>
     <row r="85">
@@ -2640,13 +2894,16 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>-0.244933575919723</v>
+        <v>-0.2726733493747517</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.001921705621858348</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0.197418597376277</v>
+        <v>-0.002104372128722518</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.2105232325748055</v>
       </c>
     </row>
     <row r="86">
@@ -2666,13 +2923,16 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.001973922564097855</v>
+        <v>-0.05693061581436093</v>
       </c>
       <c r="E86" t="n">
-        <v>7.34923786976426e-05</v>
+        <v>4.850401098193952e-44</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3987835878494108</v>
+        <v>-0.002282226292356109</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.5791711993118056</v>
       </c>
     </row>
     <row r="87">
@@ -2692,13 +2952,16 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>-0.1184154304483055</v>
+        <v>-0.1472463399452728</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.008969534970679805</v>
+        <v>1.406206163220007e-287</v>
       </c>
       <c r="F87" t="n">
-        <v>1.983550646310829</v>
+        <v>-0.01188161015972567</v>
+      </c>
+      <c r="G87" t="n">
+        <v>2.211532414604717</v>
       </c>
     </row>
     <row r="88">
@@ -2718,13 +2981,16 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>-0.05185192491463222</v>
+        <v>-0.1013380900835063</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.0007717055335662671</v>
+        <v>3.220305466763351e-136</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1428721030405204</v>
+        <v>-0.001512804277106688</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.1975601112787052</v>
       </c>
     </row>
     <row r="89">
@@ -2744,13 +3010,16 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>-0.0558581942061235</v>
+        <v>-0.08678597519373848</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.0003057719708736062</v>
+        <v>1.313609348862112e-102</v>
       </c>
       <c r="F89" t="n">
-        <v>0.08794161313615484</v>
+        <v>-0.0005946671293553737</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.1105764451393075</v>
       </c>
     </row>
     <row r="90">
@@ -2770,13 +3039,16 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>-0.05279814217562891</v>
+        <v>0.02926092966415593</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.0007428151184477179</v>
+        <v>4.503226381384773e-13</v>
       </c>
       <c r="F90" t="n">
-        <v>0.2925831644142989</v>
+        <v>0.0004565810272638539</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.2156978364338162</v>
       </c>
     </row>
     <row r="91">
@@ -2796,13 +3068,16 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.04541711456277861</v>
+        <v>-0.03516847470128562</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0007396564638549872</v>
+        <v>3.262805714665502e-18</v>
       </c>
       <c r="F91" t="n">
-        <v>0.6385931963858006</v>
+        <v>-0.0006368213468067693</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.724809875681344</v>
       </c>
     </row>
     <row r="92">
@@ -2822,13 +3097,16 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>-0.1610962733692632</v>
+        <v>-0.1363854661937216</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.002698991850005622</v>
+        <v>7.984232007045353e-252</v>
       </c>
       <c r="F92" t="n">
-        <v>0.8796387708175911</v>
+        <v>-0.002386829150518348</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.8613616442392451</v>
       </c>
     </row>
     <row r="93">
@@ -2848,13 +3126,16 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>-0.07415211574237644</v>
+        <v>-0.0757287965393674</v>
       </c>
       <c r="E93" t="n">
-        <v>-0.001565861600631429</v>
+        <v>2.412846110323775e-78</v>
       </c>
       <c r="F93" t="n">
-        <v>0.7550545922896614</v>
+        <v>-0.001680247484107793</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.7670289253439009</v>
       </c>
     </row>
     <row r="94">
@@ -2874,13 +3155,16 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.0602661797063729</v>
+        <v>0.07586560739123542</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0002299443665159123</v>
+        <v>2.408023213894212e-76</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0211364474427476</v>
+        <v>0.0002613712154744139</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.01747190848403861</v>
       </c>
     </row>
     <row r="95">
@@ -2900,13 +3184,16 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.0967500247794915</v>
+        <v>0.09329797132342421</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0002436292886508577</v>
+        <v>1.206781697401522e-114</v>
       </c>
       <c r="F95" t="n">
-        <v>0.01240275908429196</v>
+        <v>0.0002601658644668097</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.01140618775941363</v>
       </c>
     </row>
     <row r="96">
@@ -2926,13 +3213,16 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.08963482557864591</v>
+        <v>0.03285983386462706</v>
       </c>
       <c r="E96" t="n">
-        <v>6.528490576072286e-05</v>
+        <v>1.244498179421732e-15</v>
       </c>
       <c r="F96" t="n">
-        <v>0.003100774580270377</v>
+        <v>2.551197141941033e-05</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.006029788411963095</v>
       </c>
     </row>
     <row r="97">
@@ -2952,13 +3242,16 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>-0.03588232312254742</v>
+        <v>-0.05652918461084951</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.004518024561072742</v>
+        <v>4.535053680443969e-28</v>
       </c>
       <c r="F97" t="n">
-        <v>6.249237977442996</v>
+        <v>-0.007538517905769837</v>
+      </c>
+      <c r="G97" t="n">
+        <v>6.529291911198311</v>
       </c>
     </row>
     <row r="98">
@@ -2978,13 +3271,16 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.04639589867418158</v>
+        <v>0.03916244723118403</v>
       </c>
       <c r="E98" t="n">
-        <v>0.1091838271174166</v>
+        <v>3.808790322786474e-15</v>
       </c>
       <c r="F98" t="n">
-        <v>48.358792340459</v>
+        <v>0.0942339442744299</v>
+      </c>
+      <c r="G98" t="n">
+        <v>47.66986002457177</v>
       </c>
     </row>
     <row r="99">
@@ -3004,13 +3300,16 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>-0.07564995427868372</v>
+        <v>-0.04841987707037046</v>
       </c>
       <c r="E99" t="n">
-        <v>-0.3838087649457534</v>
+        <v>1.051900194071234e-22</v>
       </c>
       <c r="F99" t="n">
-        <v>218.805424772791</v>
+        <v>-0.2666373828863832</v>
+      </c>
+      <c r="G99" t="n">
+        <v>206.0851240043725</v>
       </c>
     </row>
     <row r="100">
@@ -3030,13 +3329,16 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>-0.03238430920474598</v>
+        <v>0.008163498968788948</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.01690682657567418</v>
+        <v>0.09707199477305271</v>
       </c>
       <c r="F100" t="n">
-        <v>4.411620240893453</v>
+        <v>0.004414071813083981</v>
+      </c>
+      <c r="G100" t="n">
+        <v>3.046209057759137</v>
       </c>
     </row>
     <row r="101">
@@ -3056,13 +3358,16 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.2012025814166322</v>
+        <v>0.2079046008182628</v>
       </c>
       <c r="E101" t="n">
-        <v>0.01195309803506053</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2978003557121852</v>
+        <v>0.01469321076584641</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.1117878445048053</v>
       </c>
     </row>
     <row r="102">
@@ -3082,13 +3387,16 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0.05056277018050803</v>
+        <v>0.06815285823161901</v>
       </c>
       <c r="E102" t="n">
-        <v>2324220.768794452</v>
+        <v>9.153957775161752e-30</v>
       </c>
       <c r="F102" t="n">
-        <v>432760504.5447179</v>
+        <v>2903406.400528567</v>
+      </c>
+      <c r="G102" t="n">
+        <v>400855223.4398495</v>
       </c>
     </row>
     <row r="103">
@@ -3108,13 +3416,16 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0.05056277960165287</v>
+        <v>0.06815286577855492</v>
       </c>
       <c r="E103" t="n">
-        <v>2324.221210641472</v>
+        <v>9.153826312214797e-30</v>
       </c>
       <c r="F103" t="n">
-        <v>432760.4644064296</v>
+        <v>2903.406740317724</v>
+      </c>
+      <c r="G103" t="n">
+        <v>400855.1894905828</v>
       </c>
     </row>
     <row r="104">
@@ -3134,13 +3445,16 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>-0.1005298344424265</v>
+        <v>-0.04166167776012192</v>
       </c>
       <c r="E104" t="n">
-        <v>-3.757428300960666</v>
+        <v>4.491384988669762e-12</v>
       </c>
       <c r="F104" t="n">
-        <v>413.8259936009678</v>
+        <v>-1.074473050237471</v>
+      </c>
+      <c r="G104" t="n">
+        <v>258.8350211027048</v>
       </c>
     </row>
     <row r="105">
@@ -3160,13 +3474,16 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>-0.02299410327743438</v>
+        <v>-0.01427336755137088</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.000305721624761209</v>
+        <v>0.03979303684383894</v>
       </c>
       <c r="F105" t="n">
-        <v>0.06215553683683642</v>
+        <v>-0.0001779130258703006</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.05995673661109651</v>
       </c>
     </row>
     <row r="106">
@@ -3186,13 +3503,16 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.007496535442122213</v>
+        <v>0.03176653736598993</v>
       </c>
       <c r="E106" t="n">
-        <v>0.000229345154938363</v>
+        <v>4.728790616656502e-06</v>
       </c>
       <c r="F106" t="n">
-        <v>0.1805605546835758</v>
+        <v>0.0009860719449666087</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.1482366602846816</v>
       </c>
     </row>
     <row r="107">
@@ -3212,13 +3532,16 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0.04603949430853587</v>
+        <v>0.01036878457473013</v>
       </c>
       <c r="E107" t="n">
-        <v>0.00326648506416851</v>
+        <v>0.1292788571022024</v>
       </c>
       <c r="F107" t="n">
-        <v>3.802078406072809</v>
+        <v>0.0006838557199493131</v>
+      </c>
+      <c r="G107" t="n">
+        <v>3.943338311841708</v>
       </c>
     </row>
     <row r="108">
@@ -3238,13 +3561,16 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0.1021669900346301</v>
+        <v>0.0291557712299956</v>
       </c>
       <c r="E108" t="n">
-        <v>0.6293069915806713</v>
+        <v>2.009926634856058e-05</v>
       </c>
       <c r="F108" t="n">
-        <v>45.27571016889056</v>
+        <v>0.1636011866003977</v>
+      </c>
+      <c r="G108" t="n">
+        <v>72.3280021188294</v>
       </c>
     </row>
     <row r="109">
@@ -3264,13 +3590,16 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0.006194968751712224</v>
+        <v>0.01881623142050474</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0252395177897455</v>
+        <v>0.005975545910745987</v>
       </c>
       <c r="F109" t="n">
-        <v>23.35674803619293</v>
+        <v>0.06583688367807689</v>
+      </c>
+      <c r="G109" t="n">
+        <v>21.04739187071689</v>
       </c>
     </row>
     <row r="110">
@@ -3290,13 +3619,16 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>-0.05645183174672274</v>
+        <v>-0.0763005583869079</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.01197509255866704</v>
+        <v>3.592072347696092e-28</v>
       </c>
       <c r="F110" t="n">
-        <v>2.838902374720264</v>
+        <v>-0.01330717853135188</v>
+      </c>
+      <c r="G110" t="n">
+        <v>2.90209307396195</v>
       </c>
     </row>
     <row r="111">
@@ -3316,13 +3648,16 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>-0.02063390803812471</v>
+        <v>-0.03642234916492464</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.000898993358230692</v>
+        <v>1.540648359080498e-07</v>
       </c>
       <c r="F111" t="n">
-        <v>0.5808170275795292</v>
+        <v>-0.001442573180144122</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.6270606342386894</v>
       </c>
     </row>
     <row r="112">
@@ -3342,13 +3677,16 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>-0.004734282518916052</v>
+        <v>-0.07983144631606327</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.001694793899682366</v>
+        <v>1.089884616782188e-30</v>
       </c>
       <c r="F112" t="n">
-        <v>3.970378626093733</v>
+        <v>-0.02554125659021643</v>
+      </c>
+      <c r="G112" t="n">
+        <v>5.333708044279112</v>
       </c>
     </row>
     <row r="113">
@@ -3368,13 +3706,16 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>-0.02150796447667815</v>
+        <v>0.02280091081387565</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.1033943865276297</v>
+        <v>0.0008850869467259089</v>
       </c>
       <c r="F113" t="n">
-        <v>31.38720977387552</v>
+        <v>0.08501205489237436</v>
+      </c>
+      <c r="G113" t="n">
+        <v>19.85788777780164</v>
       </c>
     </row>
     <row r="114">
@@ -3394,13 +3735,16 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>-0.001097430296480025</v>
+        <v>0.02069770236036127</v>
       </c>
       <c r="E114" t="n">
-        <v>-0.0001472087528803652</v>
+        <v>0.002869344028702804</v>
       </c>
       <c r="F114" t="n">
-        <v>0.8281167293995596</v>
+        <v>0.002575756099654842</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.6903282770787463</v>
       </c>
     </row>
     <row r="115">
@@ -3420,13 +3764,16 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.02726987775057169</v>
+        <v>0.0693118760010888</v>
       </c>
       <c r="E115" t="n">
-        <v>0.002048401153643819</v>
+        <v>4.408988458541539e-24</v>
       </c>
       <c r="F115" t="n">
-        <v>0.3407855654562643</v>
+        <v>0.004022385408204756</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.2223177442880896</v>
       </c>
     </row>
     <row r="116">
@@ -3446,13 +3793,16 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>-0.0002083710318006012</v>
+        <v>0.01339475860184765</v>
       </c>
       <c r="E116" t="n">
-        <v>-0.0002822362506055583</v>
+        <v>0.05003243079592389</v>
       </c>
       <c r="F116" t="n">
-        <v>15.11911765472888</v>
+        <v>0.01717207573161739</v>
+      </c>
+      <c r="G116" t="n">
+        <v>14.5486763416869</v>
       </c>
     </row>
     <row r="117">
@@ -3472,13 +3822,16 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>-0.03381774068394951</v>
+        <v>0.03085554558806659</v>
       </c>
       <c r="E117" t="n">
-        <v>-0.003143906037160501</v>
+        <v>6.331368240653635e-06</v>
       </c>
       <c r="F117" t="n">
-        <v>9.448160527102473</v>
+        <v>0.002516538612487574</v>
+      </c>
+      <c r="G117" t="n">
+        <v>9.147052869163643</v>
       </c>
     </row>
     <row r="118">
@@ -3498,13 +3851,16 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>-0.008910441052261403</v>
+        <v>0.03631034944720218</v>
       </c>
       <c r="E118" t="n">
-        <v>-0.07962260275472233</v>
+        <v>1.085345853208134e-07</v>
       </c>
       <c r="F118" t="n">
-        <v>200.0646770262009</v>
+        <v>0.3081370879249662</v>
+      </c>
+      <c r="G118" t="n">
+        <v>177.8231365859367</v>
       </c>
     </row>
     <row r="119">
@@ -3524,13 +3880,16 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0.03038957448774587</v>
+        <v>-0.02238072124198296</v>
       </c>
       <c r="E119" t="n">
-        <v>0.01902652864629778</v>
+        <v>0.001058047090983321</v>
       </c>
       <c r="F119" t="n">
-        <v>99.92269220459374</v>
+        <v>-0.0132432284273545</v>
+      </c>
+      <c r="G119" t="n">
+        <v>101.6049763556067</v>
       </c>
     </row>
     <row r="120">
@@ -3550,13 +3909,16 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>-0.03697404145656936</v>
+        <v>-0.05478642496248131</v>
       </c>
       <c r="E120" t="n">
-        <v>-3.493284855769541</v>
+        <v>1.075953203516332e-15</v>
       </c>
       <c r="F120" t="n">
-        <v>550.3582344367001</v>
+        <v>-4.873354996702369</v>
+      </c>
+      <c r="G120" t="n">
+        <v>617.0196289756915</v>
       </c>
     </row>
     <row r="121">
@@ -3576,13 +3938,16 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.07633618676416674</v>
+        <v>0.06812788724319435</v>
       </c>
       <c r="E121" t="n">
-        <v>0.04656931590551523</v>
+        <v>1.971643773943739e-23</v>
       </c>
       <c r="F121" t="n">
-        <v>21.01217322582072</v>
+        <v>0.03694124332324478</v>
+      </c>
+      <c r="G121" t="n">
+        <v>21.70106627173044</v>
       </c>
     </row>
     <row r="122">
@@ -3602,13 +3967,16 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>-0.04798914016967284</v>
+        <v>-0.03252089125942215</v>
       </c>
       <c r="E122" t="n">
-        <v>-0.005866535074225815</v>
+        <v>1.928056370179779e-06</v>
       </c>
       <c r="F122" t="n">
-        <v>1.201840451472665</v>
+        <v>-0.004116084147833669</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1.125543444580103</v>
       </c>
     </row>
     <row r="123">
@@ -3628,13 +3996,16 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>-0.02438285811527619</v>
+        <v>-0.006550712838062389</v>
       </c>
       <c r="E123" t="n">
-        <v>-0.05316458513321483</v>
+        <v>0.3378848231401729</v>
       </c>
       <c r="F123" t="n">
-        <v>6.982767508812934</v>
+        <v>-0.01133022404961322</v>
+      </c>
+      <c r="G123" t="n">
+        <v>5.102349556869775</v>
       </c>
     </row>
     <row r="124">
@@ -3654,13 +4025,16 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>-0.04920532891748529</v>
+        <v>-0.02035710690662771</v>
       </c>
       <c r="E124" t="n">
-        <v>-0.005653866357837074</v>
+        <v>0.002896908534275939</v>
       </c>
       <c r="F124" t="n">
-        <v>1.299037400416529</v>
+        <v>-0.00213371812157268</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1.119490340530011</v>
       </c>
     </row>
     <row r="125">
@@ -3680,13 +4054,16 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>-0.09941495366296586</v>
+        <v>-0.09115968606710532</v>
       </c>
       <c r="E125" t="n">
-        <v>-0.07203957012968328</v>
+        <v>1.056688070016555e-40</v>
       </c>
       <c r="F125" t="n">
-        <v>7.538651723220473</v>
+        <v>-0.05330175365539431</v>
+      </c>
+      <c r="G125" t="n">
+        <v>6.387223605213425</v>
       </c>
     </row>
     <row r="126">
@@ -3706,13 +4083,16 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0.03973797972644651</v>
+        <v>0.07169898629628908</v>
       </c>
       <c r="E126" t="n">
-        <v>0.01635846661399362</v>
+        <v>4.641552851269446e-25</v>
       </c>
       <c r="F126" t="n">
-        <v>1.842594532887965</v>
+        <v>0.0296701416863704</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1.280533182258129</v>
       </c>
     </row>
     <row r="127">
@@ -3732,13 +4112,16 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0.01267714316114101</v>
+        <v>0.02634518195055699</v>
       </c>
       <c r="E127" t="n">
-        <v>0.7286968805487061</v>
+        <v>0.0001197398574853964</v>
       </c>
       <c r="F127" t="n">
-        <v>129.9428634366682</v>
+        <v>1.131236451555524</v>
+      </c>
+      <c r="G127" t="n">
+        <v>96.5233456025741</v>
       </c>
     </row>
     <row r="128">
@@ -3758,13 +4141,16 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0.0007515139206710917</v>
+        <v>0.01287874723778331</v>
       </c>
       <c r="E128" t="n">
-        <v>0.007597011344488835</v>
+        <v>0.05964699468256131</v>
       </c>
       <c r="F128" t="n">
-        <v>107.6099525126635</v>
+        <v>0.1238535679803351</v>
+      </c>
+      <c r="G128" t="n">
+        <v>102.7096933372354</v>
       </c>
     </row>
     <row r="129">
@@ -3784,13 +4170,16 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0.0551359528736654</v>
+        <v>0.04039883293578334</v>
       </c>
       <c r="E129" t="n">
-        <v>0.05171119184214227</v>
+        <v>5.016638527868018e-09</v>
       </c>
       <c r="F129" t="n">
-        <v>39.40367157441997</v>
+        <v>0.03681617525492652</v>
+      </c>
+      <c r="G129" t="n">
+        <v>40.21182970685596</v>
       </c>
     </row>
     <row r="130">
@@ -3810,13 +4199,16 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0.003301177303738021</v>
+        <v>0.04150366126876582</v>
       </c>
       <c r="E130" t="n">
-        <v>0.02053038608951472</v>
+        <v>1.244257514879831e-09</v>
       </c>
       <c r="F130" t="n">
-        <v>57.34542745963045</v>
+        <v>0.1978947186654453</v>
+      </c>
+      <c r="G130" t="n">
+        <v>45.53929171450578</v>
       </c>
     </row>
     <row r="131">
@@ -3836,13 +4228,16 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0.07683732929306086</v>
+        <v>0.05893817185626005</v>
       </c>
       <c r="E131" t="n">
-        <v>0.02465790360324319</v>
+        <v>1.338270019278681e-17</v>
       </c>
       <c r="F131" t="n">
-        <v>12.53136831430093</v>
+        <v>0.01837328925221013</v>
+      </c>
+      <c r="G131" t="n">
+        <v>12.86623582164736</v>
       </c>
     </row>
     <row r="132">
@@ -3862,13 +4257,16 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>-0.01287361741982133</v>
+        <v>-0.01790701174323061</v>
       </c>
       <c r="E132" t="n">
-        <v>-0.001229326694331982</v>
+        <v>0.008881957418122005</v>
       </c>
       <c r="F132" t="n">
-        <v>4.191836717703496</v>
+        <v>-0.001511208643076508</v>
+      </c>
+      <c r="G132" t="n">
+        <v>4.222470093748359</v>
       </c>
     </row>
     <row r="133">
@@ -3888,13 +4286,16 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>-0.01395572653739624</v>
+        <v>0.02689765165848828</v>
       </c>
       <c r="E133" t="n">
-        <v>-0.1137885657680398</v>
+        <v>0.0001029527056711257</v>
       </c>
       <c r="F133" t="n">
-        <v>113.436737247547</v>
+        <v>0.1992780436642769</v>
+      </c>
+      <c r="G133" t="n">
+        <v>96.17500892584262</v>
       </c>
     </row>
     <row r="134">
@@ -3914,13 +4315,16 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>-0.0528031668010862</v>
+        <v>-0.01189074415053313</v>
       </c>
       <c r="E134" t="n">
-        <v>-0.1199236527823486</v>
+        <v>0.08677168319062986</v>
       </c>
       <c r="F134" t="n">
-        <v>39.21707726403738</v>
+        <v>-0.02217502802977049</v>
+      </c>
+      <c r="G134" t="n">
+        <v>33.31440320677122</v>
       </c>
     </row>
     <row r="135">
@@ -3940,13 +4344,16 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0.07800487931689107</v>
+        <v>0.106328145706229</v>
       </c>
       <c r="E135" t="n">
-        <v>0.04505006547338945</v>
+        <v>1.863907747253798e-53</v>
       </c>
       <c r="F135" t="n">
-        <v>28.17732571643447</v>
+        <v>0.05187295380531049</v>
+      </c>
+      <c r="G135" t="n">
+        <v>27.46320158809351</v>
       </c>
     </row>
     <row r="136">
@@ -3966,13 +4373,16 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0.05222807586664099</v>
+        <v>0.04883666364012855</v>
       </c>
       <c r="E136" t="n">
-        <v>0.0164342704790407</v>
+        <v>1.815697499178381e-12</v>
       </c>
       <c r="F136" t="n">
-        <v>31.98014427229832</v>
+        <v>0.01344683364571202</v>
+      </c>
+      <c r="G136" t="n">
+        <v>32.15603093962675</v>
       </c>
     </row>
     <row r="137">
@@ -3992,13 +4402,16 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0.06339735199407164</v>
+        <v>0.08175890892996542</v>
       </c>
       <c r="E137" t="n">
-        <v>0.101122831213305</v>
+        <v>2.312638025468775e-32</v>
       </c>
       <c r="F137" t="n">
-        <v>87.72286208077514</v>
+        <v>0.1211014953814953</v>
+      </c>
+      <c r="G137" t="n">
+        <v>85.52027279877534</v>
       </c>
     </row>
     <row r="138">
@@ -4018,13 +4431,16 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>-0.004298745347854489</v>
+        <v>0.03591490719474198</v>
       </c>
       <c r="E138" t="n">
-        <v>-0.00232678143650838</v>
+        <v>2.28551771318653e-07</v>
       </c>
       <c r="F138" t="n">
-        <v>7.991935220308126</v>
+        <v>0.01727927387387854</v>
+      </c>
+      <c r="G138" t="n">
+        <v>7.083877670057156</v>
       </c>
     </row>
     <row r="139">
@@ -4044,13 +4460,16 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0.002893744441589241</v>
+        <v>-0.02716400031247038</v>
       </c>
       <c r="E139" t="n">
-        <v>0.0006752725976180104</v>
+        <v>8.944603479766644e-05</v>
       </c>
       <c r="F139" t="n">
-        <v>11.07380905369559</v>
+        <v>-0.005707558248381616</v>
+      </c>
+      <c r="G139" t="n">
+        <v>11.52447852745058</v>
       </c>
     </row>
     <row r="140">
@@ -4070,13 +4489,16 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0.007429531121576906</v>
+        <v>-0.007984783757063725</v>
       </c>
       <c r="E140" t="n">
-        <v>0.004563411290850073</v>
+        <v>0.242742228115028</v>
       </c>
       <c r="F140" t="n">
-        <v>139.0933530862394</v>
+        <v>-0.004262075313242982</v>
+      </c>
+      <c r="G140" t="n">
+        <v>139.5681248706835</v>
       </c>
     </row>
     <row r="141">
@@ -4096,13 +4518,16 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0.04381573885566867</v>
+        <v>-0.01339366471545867</v>
       </c>
       <c r="E141" t="n">
-        <v>0.1082923409792062</v>
+        <v>0.05370982306419595</v>
       </c>
       <c r="F141" t="n">
-        <v>50.00800067798109</v>
+        <v>-0.02717244529065506</v>
+      </c>
+      <c r="G141" t="n">
+        <v>57.62393719352784</v>
       </c>
     </row>
     <row r="142">
@@ -4122,13 +4547,16 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>-0.01268156825212097</v>
+        <v>-0.0140071257888124</v>
       </c>
       <c r="E142" t="n">
-        <v>-1.785016103104648</v>
+        <v>0.04605953449205155</v>
       </c>
       <c r="F142" t="n">
-        <v>252.8349387641459</v>
+        <v>-4.722476015800579</v>
+      </c>
+      <c r="G142" t="n">
+        <v>472.7349538280224</v>
       </c>
     </row>
     <row r="143">
@@ -4148,13 +4576,16 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0.008256508347516853</v>
+        <v>-0.0171059752886945</v>
       </c>
       <c r="E143" t="n">
-        <v>0.004427996480681067</v>
+        <v>0.01361931474909889</v>
       </c>
       <c r="F143" t="n">
-        <v>13.41842146125444</v>
+        <v>-0.008389208795182087</v>
+      </c>
+      <c r="G143" t="n">
+        <v>14.31120423513179</v>
       </c>
     </row>
     <row r="144">
@@ -4174,13 +4605,16 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>-0.02744210715348456</v>
+        <v>-0.04857400807320893</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.4404054609699283</v>
+        <v>1.991724734033513e-12</v>
       </c>
       <c r="F144" t="n">
-        <v>269.5973672473092</v>
+        <v>-0.6747099650154869</v>
+      </c>
+      <c r="G144" t="n">
+        <v>277.5180981109095</v>
       </c>
     </row>
     <row r="145">
@@ -4200,13 +4634,16 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>-0.004989390783700486</v>
+        <v>-0.0192370441201423</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.0006059630572383874</v>
+        <v>0.005382225279963433</v>
       </c>
       <c r="F145" t="n">
-        <v>4.582951172073508</v>
+        <v>-0.002040879477459409</v>
+      </c>
+      <c r="G145" t="n">
+        <v>4.71266128753277</v>
       </c>
     </row>
     <row r="146">
@@ -4226,13 +4663,16 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>-0.04908058113572076</v>
+        <v>-0.05773655477962632</v>
       </c>
       <c r="E146" t="n">
-        <v>-0.01569634419601653</v>
+        <v>6.296355445170406e-17</v>
       </c>
       <c r="F146" t="n">
-        <v>14.59740936013824</v>
+        <v>-0.01728182317309966</v>
+      </c>
+      <c r="G146" t="n">
+        <v>14.78658161690703</v>
       </c>
     </row>
     <row r="147">
@@ -4252,13 +4692,16 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0.004353959228607214</v>
+        <v>-0.01153519796289373</v>
       </c>
       <c r="E147" t="n">
-        <v>0.07567017577173782</v>
+        <v>0.09160762786332061</v>
       </c>
       <c r="F147" t="n">
-        <v>146.0070853600254</v>
+        <v>-0.2585528584636489</v>
+      </c>
+      <c r="G147" t="n">
+        <v>174.2439822410912</v>
       </c>
     </row>
     <row r="148">
@@ -4278,13 +4721,16 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>-0.05224856630368781</v>
+        <v>-0.05807655825216581</v>
       </c>
       <c r="E148" t="n">
-        <v>-0.005454951779729514</v>
+        <v>1.838923774004085e-17</v>
       </c>
       <c r="F148" t="n">
-        <v>7.229262384596339</v>
+        <v>-0.005348986098154863</v>
+      </c>
+      <c r="G148" t="n">
+        <v>7.240502454022427</v>
       </c>
     </row>
     <row r="149">
@@ -4304,13 +4750,16 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>-0.03044384610895713</v>
+        <v>-0.09365047472732096</v>
       </c>
       <c r="E149" t="n">
-        <v>-0.01413657350488499</v>
+        <v>1.211357399672057e-41</v>
       </c>
       <c r="F149" t="n">
-        <v>7.591962252400561</v>
+        <v>-0.03962227277019034</v>
+      </c>
+      <c r="G149" t="n">
+        <v>9.066891915887844</v>
       </c>
     </row>
     <row r="150">
@@ -4330,13 +4779,16 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>-0.07820641313263478</v>
+        <v>0.01273825113381561</v>
       </c>
       <c r="E150" t="n">
-        <v>-0.09047641811084482</v>
+        <v>0.06342309303028647</v>
       </c>
       <c r="F150" t="n">
-        <v>6.527648322179743</v>
+        <v>0.01544850175749988</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1.015341944904542</v>
       </c>
     </row>
     <row r="151">
@@ -4356,13 +4808,16 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>-0.007645882418188429</v>
+        <v>0.06867245469679809</v>
       </c>
       <c r="E151" t="n">
-        <v>-0.02444968747874766</v>
+        <v>1.26599573453989e-23</v>
       </c>
       <c r="F151" t="n">
-        <v>31.78348001358848</v>
+        <v>0.1942093695296214</v>
+      </c>
+      <c r="G151" t="n">
+        <v>17.49311960756971</v>
       </c>
     </row>
     <row r="152">
@@ -4382,13 +4837,16 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>-0.008910881959661816</v>
+        <v>-0.05947039412263999</v>
       </c>
       <c r="E152" t="n">
-        <v>-30.33794412328777</v>
+        <v>3.401869210120813e-18</v>
       </c>
       <c r="F152" t="n">
-        <v>51547.39067684585</v>
+        <v>-181.1882081150121</v>
+      </c>
+      <c r="G152" t="n">
+        <v>60952.54918304829</v>
       </c>
     </row>
     <row r="153">
@@ -4408,13 +4866,16 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>-0.05015090352610528</v>
+        <v>-0.02165478216706308</v>
       </c>
       <c r="E153" t="n">
-        <v>-0.04446270379325745</v>
+        <v>0.001552958404891972</v>
       </c>
       <c r="F153" t="n">
-        <v>6.275048661283538</v>
+        <v>-0.02039036086643876</v>
+      </c>
+      <c r="G153" t="n">
+        <v>5.00459477489081</v>
       </c>
     </row>
     <row r="154">
@@ -4434,13 +4895,16 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>-0.02019810463559297</v>
+        <v>-0.04119750888134926</v>
       </c>
       <c r="E154" t="n">
-        <v>-1.740521775443362</v>
+        <v>1.718501338341495e-09</v>
       </c>
       <c r="F154" t="n">
-        <v>650.8114559593342</v>
+        <v>-4.574599747772242</v>
+      </c>
+      <c r="G154" t="n">
+        <v>852.8408363954613</v>
       </c>
     </row>
     <row r="155">
@@ -4460,13 +4924,16 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>-0.1723293822557955</v>
+        <v>-0.05559994006525452</v>
       </c>
       <c r="E155" t="n">
-        <v>-0.4586269876806075</v>
+        <v>4.270389972120486e-16</v>
       </c>
       <c r="F155" t="n">
-        <v>30.4884574407366</v>
+        <v>-0.1204147328458033</v>
+      </c>
+      <c r="G155" t="n">
+        <v>11.62154329599701</v>
       </c>
     </row>
     <row r="156">
@@ -4486,13 +4953,16 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>-0.04446117937629114</v>
+        <v>-0.04385408634309416</v>
       </c>
       <c r="E156" t="n">
-        <v>-14.36016187807257</v>
+        <v>1.444637789865254e-10</v>
       </c>
       <c r="F156" t="n">
-        <v>2351.390574130536</v>
+        <v>-15.44442993482148</v>
+      </c>
+      <c r="G156" t="n">
+        <v>2445.041036428887</v>
       </c>
     </row>
     <row r="157">
@@ -4512,13 +4982,16 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>-0.06290709120824817</v>
+        <v>-0.03419790677026608</v>
       </c>
       <c r="E157" t="n">
-        <v>-0.5691837088717184</v>
+        <v>5.777434533099118e-07</v>
       </c>
       <c r="F157" t="n">
-        <v>138.2415818562509</v>
+        <v>-0.2842506206467327</v>
+      </c>
+      <c r="G157" t="n">
+        <v>125.7078027865506</v>
       </c>
     </row>
     <row r="158">
@@ -4538,13 +5011,16 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>-0.01239105307500794</v>
+        <v>-0.01766738574470401</v>
       </c>
       <c r="E158" t="n">
-        <v>-0.002461823730769881</v>
+        <v>0.03855845270464685</v>
       </c>
       <c r="F158" t="n">
-        <v>1.143782821649391</v>
+        <v>-0.003040107057232842</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1.159460055941618</v>
       </c>
     </row>
     <row r="159">
@@ -4564,13 +5040,16 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>-0.07033385562935855</v>
+        <v>-0.07678834526348556</v>
       </c>
       <c r="E159" t="n">
-        <v>-0.1226094200974536</v>
+        <v>2.626805385438399e-20</v>
       </c>
       <c r="F159" t="n">
-        <v>19.58888463726877</v>
+        <v>-0.12176149401346</v>
+      </c>
+      <c r="G159" t="n">
+        <v>19.40029421131056</v>
       </c>
     </row>
     <row r="160">
@@ -4590,13 +5069,16 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0.06152142719701407</v>
+        <v>-0.03339050693473884</v>
       </c>
       <c r="E160" t="n">
-        <v>148.7763197895876</v>
+        <v>3.105257428720621e-06</v>
       </c>
       <c r="F160" t="n">
-        <v>29458.56082219717</v>
+        <v>-71.69684592302856</v>
+      </c>
+      <c r="G160" t="n">
+        <v>42025.15772729295</v>
       </c>
     </row>
     <row r="161">
@@ -4616,13 +5098,16 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0.01048549385787079</v>
+        <v>0.0278882987732724</v>
       </c>
       <c r="E161" t="n">
-        <v>0.2126122311306235</v>
+        <v>9.824053405465289e-05</v>
       </c>
       <c r="F161" t="n">
-        <v>214.0279763963748</v>
+        <v>0.4153971073962119</v>
+      </c>
+      <c r="G161" t="n">
+        <v>199.0210745649487</v>
       </c>
     </row>
     <row r="162">
@@ -4642,13 +5127,16 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>-0.0130887539687261</v>
+        <v>-0.007169093721761129</v>
       </c>
       <c r="E162" t="n">
-        <v>-0.0003168069628476205</v>
+        <v>0.3188801482254869</v>
       </c>
       <c r="F162" t="n">
-        <v>0.06336287060189066</v>
+        <v>-0.0001191542184287068</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.05515260266475693</v>
       </c>
     </row>
     <row r="163">
@@ -4668,13 +5156,16 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>-0.006262153517380384</v>
+        <v>-0.003658656975379105</v>
       </c>
       <c r="E163" t="n">
-        <v>-5.735455421656421e-05</v>
+        <v>0.6109765205592711</v>
       </c>
       <c r="F163" t="n">
-        <v>0.03649748643392446</v>
+        <v>-2.801175235308242e-05</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.03671359080188623</v>
       </c>
     </row>
     <row r="164">
@@ -4694,13 +5185,16 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>-0.004831054875977467</v>
+        <v>-0.004073892699025883</v>
       </c>
       <c r="E164" t="n">
-        <v>-7.228288250943703e-05</v>
+        <v>0.5711133082091482</v>
       </c>
       <c r="F164" t="n">
-        <v>0.01105662998077614</v>
+        <v>-3.917440692526802e-05</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.009440248229344641</v>
       </c>
     </row>
     <row r="165">
@@ -4720,13 +5214,16 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>-0.00533473919835642</v>
+        <v>-0.03952208947644285</v>
       </c>
       <c r="E165" t="n">
-        <v>-0.0002201845796716438</v>
+        <v>3.861568725449263e-08</v>
       </c>
       <c r="F165" t="n">
-        <v>0.2196868078610437</v>
+        <v>-0.001387037044388563</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.2898370878019321</v>
       </c>
     </row>
     <row r="166">
@@ -4746,13 +5243,16 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0.02001547321170864</v>
+        <v>-0.006430210950086054</v>
       </c>
       <c r="E166" t="n">
-        <v>9.530209774186976e-06</v>
+        <v>0.3713067634183227</v>
       </c>
       <c r="F166" t="n">
-        <v>0.001258437730676807</v>
+        <v>-2.935842655323941e-06</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.001833208126036011</v>
       </c>
     </row>
     <row r="167">
@@ -4772,13 +5272,16 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>-0.006453630289612623</v>
+        <v>-0.04070714638564484</v>
       </c>
       <c r="E167" t="n">
-        <v>-0.0002583419475133542</v>
+        <v>1.495917979101899e-08</v>
       </c>
       <c r="F167" t="n">
-        <v>0.2105242550061555</v>
+        <v>-0.001378569190192295</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.2770899623496771</v>
       </c>
     </row>
     <row r="168">
@@ -4798,13 +5301,16 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0.04397695484341518</v>
+        <v>0.004379321879505327</v>
       </c>
       <c r="E168" t="n">
-        <v>0.001334834726754644</v>
+        <v>0.5426051117320675</v>
       </c>
       <c r="F168" t="n">
-        <v>0.0975078161786983</v>
+        <v>0.0001288386572134439</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.1694521020644769</v>
       </c>
     </row>
     <row r="169">
@@ -4824,13 +5330,16 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0.0357439241161728</v>
+        <v>0.005378129616035113</v>
       </c>
       <c r="E169" t="n">
-        <v>0.001036613979910286</v>
+        <v>0.4546581341807108</v>
       </c>
       <c r="F169" t="n">
-        <v>0.1047640801912939</v>
+        <v>0.0001504683400584592</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.1595958212131455</v>
       </c>
     </row>
     <row r="170">
@@ -4850,13 +5359,16 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0.04925951341122218</v>
+        <v>0.03029369408989451</v>
       </c>
       <c r="E170" t="n">
-        <v>7.726411129011459e-05</v>
+        <v>2.526833681943062e-05</v>
       </c>
       <c r="F170" t="n">
-        <v>0.001044938976999045</v>
+        <v>7.998195539845102e-05</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.001618299900899916</v>
       </c>
     </row>
     <row r="171">
@@ -4876,13 +5388,16 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0.05453180739531546</v>
+        <v>0.01131590867165651</v>
       </c>
       <c r="E171" t="n">
-        <v>0.001532753427860804</v>
+        <v>0.1108352524676173</v>
       </c>
       <c r="F171" t="n">
-        <v>0.6276533965828116</v>
+        <v>0.0002977310229149545</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.6909437422127098</v>
       </c>
     </row>
     <row r="172">
@@ -4902,13 +5417,16 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>-0.02996779377142975</v>
+        <v>-0.004564414755253502</v>
       </c>
       <c r="E172" t="n">
-        <v>-0.0006881244398399897</v>
+        <v>0.5201434041077795</v>
       </c>
       <c r="F172" t="n">
-        <v>0.2009081654699297</v>
+        <v>-9.58113555680028e-05</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.1715724638175713</v>
       </c>
     </row>
     <row r="173">
@@ -4928,13 +5446,16 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>-0.0170659463899353</v>
+        <v>0.01623742411806323</v>
       </c>
       <c r="E173" t="n">
-        <v>-5.925285422728974e-05</v>
+        <v>0.02213833540298208</v>
       </c>
       <c r="F173" t="n">
-        <v>0.01383889733649858</v>
+        <v>5.21913596236138e-05</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.006371620298702026</v>
       </c>
     </row>
     <row r="174">
@@ -4954,13 +5475,16 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0.01870221661390103</v>
+        <v>-0.01417283171582466</v>
       </c>
       <c r="E174" t="n">
-        <v>0.0003187670714143745</v>
+        <v>0.04582119745969439</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9167182661870311</v>
+        <v>-0.0002188098259546005</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.9443862593203418</v>
       </c>
     </row>
     <row r="175">
@@ -4980,13 +5504,16 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>-0.001408349065050329</v>
+        <v>-0.01046706686600035</v>
       </c>
       <c r="E175" t="n">
-        <v>-3.689297754889181e-05</v>
+        <v>0.1402959012047117</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9544463934701184</v>
+        <v>-0.0001915423110415008</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.9664275389730824</v>
       </c>
     </row>
     <row r="176">
@@ -5006,13 +5533,16 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>0.06496376881016175</v>
+        <v>0.06041033908658375</v>
       </c>
       <c r="E176" t="n">
-        <v>0.0004027841823442897</v>
+        <v>1.613916346621632e-17</v>
       </c>
       <c r="F176" t="n">
-        <v>0.009065853406076154</v>
+        <v>0.0004047083337497993</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.01141626830786634</v>
       </c>
     </row>
     <row r="177">
@@ -5032,13 +5562,16 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>0.002436779407563088</v>
+        <v>-0.02521296552434281</v>
       </c>
       <c r="E177" t="n">
-        <v>0.0002503902863740679</v>
+        <v>0.0003778332613853567</v>
       </c>
       <c r="F177" t="n">
-        <v>0.1469579160478805</v>
+        <v>-0.001732590865832835</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.2635335734692889</v>
       </c>
     </row>
     <row r="178">
@@ -5058,13 +5591,16 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>-0.002225973069439305</v>
+        <v>0.03702756724883584</v>
       </c>
       <c r="E178" t="n">
-        <v>-1.680473288615328e-05</v>
+        <v>2.16719360155491e-06</v>
       </c>
       <c r="F178" t="n">
-        <v>0.03293561492858872</v>
+        <v>0.0002342072583677183</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.0165019565126301</v>
       </c>
     </row>
     <row r="179">
@@ -5084,13 +5620,16 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>-0.04342922927798649</v>
+        <v>-0.06280278510509565</v>
       </c>
       <c r="E179" t="n">
-        <v>-0.002356337231719487</v>
+        <v>9.200853361718485e-19</v>
       </c>
       <c r="F179" t="n">
-        <v>0.5782936116356404</v>
+        <v>-0.002780103093619965</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.5570632644298829</v>
       </c>
     </row>
     <row r="180">
@@ -5110,13 +5649,16 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>-0.09381948907986161</v>
+        <v>-0.05531569859158137</v>
       </c>
       <c r="E180" t="n">
-        <v>-0.005732952442772628</v>
+        <v>5.978056252444433e-15</v>
       </c>
       <c r="F180" t="n">
-        <v>0.7118330100935508</v>
+        <v>-0.002918724491040716</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.5464277412527236</v>
       </c>
     </row>
     <row r="181">
@@ -5136,13 +5678,16 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>0.01060815579979676</v>
+        <v>-0.04059641452537802</v>
       </c>
       <c r="E181" t="n">
-        <v>0.0001304564889800353</v>
+        <v>1.104551845188798e-08</v>
       </c>
       <c r="F181" t="n">
-        <v>0.02340391838530297</v>
+        <v>-0.0006383149777882798</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.07439354572709134</v>
       </c>
     </row>
     <row r="182">
@@ -5162,13 +5707,16 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>-0.02580840075146424</v>
+        <v>-0.04738903670873451</v>
       </c>
       <c r="E182" t="n">
-        <v>-0.003133408323824952</v>
+        <v>2.31421378509097e-11</v>
       </c>
       <c r="F182" t="n">
-        <v>1.305185155074728</v>
+        <v>-0.004915781048711351</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1.36487599451964</v>
       </c>
     </row>
     <row r="183">
@@ -5188,13 +5736,16 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>0.02555291375739615</v>
+        <v>-0.04940065122046935</v>
       </c>
       <c r="E183" t="n">
-        <v>0.000124726627380499</v>
+        <v>3.393970617514465e-12</v>
       </c>
       <c r="F183" t="n">
-        <v>0.01245614181845279</v>
+        <v>-0.0002250247148205743</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.03198878339738476</v>
       </c>
     </row>
     <row r="184">
@@ -5214,13 +5765,16 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>0.02433060628889734</v>
+        <v>-0.03266125878288788</v>
       </c>
       <c r="E184" t="n">
-        <v>6.536688840125902e-05</v>
+        <v>4.219554834207179e-06</v>
       </c>
       <c r="F184" t="n">
-        <v>0.01124757069478382</v>
+        <v>-0.0001560179946130874</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.02555733139007461</v>
       </c>
     </row>
     <row r="185">
@@ -5240,13 +5794,16 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>-0.118039660987178</v>
+        <v>-0.1154491863515478</v>
       </c>
       <c r="E185" t="n">
-        <v>-0.002280311387272064</v>
+        <v>1.036730375994034e-59</v>
       </c>
       <c r="F185" t="n">
-        <v>0.2285095843663046</v>
+        <v>-0.00197729830631894</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.2090929297081402</v>
       </c>
     </row>
     <row r="186">
@@ -5266,13 +5823,16 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>-0.004471779480522549</v>
+        <v>-0.0009095797379948785</v>
       </c>
       <c r="E186" t="n">
-        <v>-0.0003294351521550355</v>
+        <v>0.8981741146241846</v>
       </c>
       <c r="F186" t="n">
-        <v>0.5017293437709311</v>
+        <v>-6.142787462615239e-05</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.4902514807252442</v>
       </c>
     </row>
     <row r="187">
@@ -5292,13 +5852,16 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>-0.07507485236214108</v>
+        <v>-0.07125530446911457</v>
       </c>
       <c r="E187" t="n">
-        <v>-0.0117034317383976</v>
+        <v>8.436283686864401e-24</v>
       </c>
       <c r="F187" t="n">
-        <v>2.283439390915709</v>
+        <v>-0.009594825220886376</v>
+      </c>
+      <c r="G187" t="n">
+        <v>2.11803842154354</v>
       </c>
     </row>
     <row r="188">
@@ -5318,13 +5881,16 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>0.001759019645511093</v>
+        <v>-0.06941942752478279</v>
       </c>
       <c r="E188" t="n">
-        <v>3.733667466026865e-05</v>
+        <v>1.283327269593993e-22</v>
       </c>
       <c r="F188" t="n">
-        <v>0.106128661714112</v>
+        <v>-0.001454713993718695</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.1933925432354801</v>
       </c>
     </row>
     <row r="189">
@@ -5344,13 +5910,16 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>0.06054063130726145</v>
+        <v>-0.01327613912880911</v>
       </c>
       <c r="E189" t="n">
-        <v>0.0006558014676577443</v>
+        <v>0.05776457301037181</v>
       </c>
       <c r="F189" t="n">
-        <v>0.03485296731672853</v>
+        <v>-0.0001395921830378462</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.0825130982814377</v>
       </c>
     </row>
     <row r="190">
@@ -5370,13 +5939,16 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>-0.08318720035293239</v>
+        <v>-0.02168166038413081</v>
       </c>
       <c r="E190" t="n">
-        <v>-0.002006977517835663</v>
+        <v>0.001941359280673835</v>
       </c>
       <c r="F190" t="n">
-        <v>0.3504014720035337</v>
+        <v>-0.0004893645790872585</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.2690683360479577</v>
       </c>
     </row>
     <row r="191">
@@ -5396,13 +5968,16 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>0.1079436089713762</v>
+        <v>0.04399205415546987</v>
       </c>
       <c r="E191" t="n">
-        <v>0.003057866135380085</v>
+        <v>3.168670998876228e-10</v>
       </c>
       <c r="F191" t="n">
-        <v>0.5224761848649715</v>
+        <v>0.001149045572869852</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.6244775997600353</v>
       </c>
     </row>
     <row r="192">
@@ -5422,13 +5997,16 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>-0.05168686066705665</v>
+        <v>-0.00658009437069557</v>
       </c>
       <c r="E192" t="n">
-        <v>-0.00148822920403682</v>
+        <v>0.3470007073799971</v>
       </c>
       <c r="F192" t="n">
-        <v>0.8190199688205958</v>
+        <v>-0.0001651308222091001</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.7360871351912143</v>
       </c>
     </row>
     <row r="193">
@@ -5448,13 +6026,16 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>0.01244488458491109</v>
+        <v>0.02799075458212878</v>
       </c>
       <c r="E193" t="n">
-        <v>0.0004779823236749661</v>
+        <v>6.429753796736945e-05</v>
       </c>
       <c r="F193" t="n">
-        <v>0.6365180900254374</v>
+        <v>0.0009525251887961868</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.6107212177581717</v>
       </c>
     </row>
     <row r="194">
@@ -5474,13 +6055,16 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>-0.0212859458355875</v>
+        <v>-0.007136172490874563</v>
       </c>
       <c r="E194" t="n">
-        <v>-0.0001137256283034758</v>
+        <v>0.3211075612322957</v>
       </c>
       <c r="F194" t="n">
-        <v>0.03753024696410719</v>
+        <v>-3.444900853634658e-05</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.03356659180065307</v>
       </c>
     </row>
     <row r="195">
@@ -5500,13 +6084,16 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>0.05974328677520792</v>
+        <v>0.02668225243530943</v>
       </c>
       <c r="E195" t="n">
-        <v>0.000253138718123722</v>
+        <v>0.0002069276776617607</v>
       </c>
       <c r="F195" t="n">
-        <v>0.01185960751223819</v>
+        <v>0.0001102485540296101</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.02013183546720542</v>
       </c>
     </row>
     <row r="196">
@@ -5526,13 +6113,16 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>-0.03127279839329107</v>
+        <v>0.01347611791853752</v>
       </c>
       <c r="E196" t="n">
-        <v>-4.025119757128345e-05</v>
+        <v>0.06096821090408729</v>
       </c>
       <c r="F196" t="n">
-        <v>0.00915533822516717</v>
+        <v>1.627565822246196e-05</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.00636303637767166</v>
       </c>
     </row>
     <row r="197">
@@ -5552,13 +6142,16 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>-0.01454941088046083</v>
+        <v>-0.04026250393985299</v>
       </c>
       <c r="E197" t="n">
-        <v>-0.003875064626969874</v>
+        <v>6.152525326702164e-07</v>
       </c>
       <c r="F197" t="n">
-        <v>6.083175848504434</v>
+        <v>-0.0102041952869161</v>
+      </c>
+      <c r="G197" t="n">
+        <v>6.48761674651317</v>
       </c>
     </row>
     <row r="198">
@@ -5578,13 +6171,16 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>0.1300521258154594</v>
+        <v>0.08728935253683459</v>
       </c>
       <c r="E198" t="n">
-        <v>0.5654244815548065</v>
+        <v>1.499643526407372e-28</v>
       </c>
       <c r="F198" t="n">
-        <v>23.1664492123719</v>
+        <v>0.3455556418730548</v>
+      </c>
+      <c r="G198" t="n">
+        <v>35.00510719005716</v>
       </c>
     </row>
     <row r="199">
@@ -5604,13 +6200,16 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>0.003124293522081905</v>
+        <v>0.1034072601653054</v>
       </c>
       <c r="E199" t="n">
-        <v>0.02803334848568853</v>
+        <v>2.641003411151579e-40</v>
       </c>
       <c r="F199" t="n">
-        <v>196.6327066088373</v>
+        <v>0.9004512456994498</v>
+      </c>
+      <c r="G199" t="n">
+        <v>147.7845297276312</v>
       </c>
     </row>
     <row r="200">
@@ -5630,13 +6229,16 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>0.03967492493489954</v>
+        <v>0.03647652662520448</v>
       </c>
       <c r="E200" t="n">
-        <v>0.03878771904449758</v>
+        <v>2.5125459299519e-06</v>
       </c>
       <c r="F200" t="n">
-        <v>1.228132311795507</v>
+        <v>0.03359216571981282</v>
+      </c>
+      <c r="G200" t="n">
+        <v>1.795878932248516</v>
       </c>
     </row>
     <row r="201">
@@ -5656,13 +6258,16 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>-0.05549898280065726</v>
+        <v>-0.008243329182692377</v>
       </c>
       <c r="E201" t="n">
-        <v>-0.006112461722891361</v>
+        <v>0.2876044210409195</v>
       </c>
       <c r="F201" t="n">
-        <v>1.282365000680987</v>
+        <v>-0.0008141140045622162</v>
+      </c>
+      <c r="G201" t="n">
+        <v>1.003134568282528</v>
       </c>
     </row>
     <row r="202">
@@ -5682,13 +6287,16 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>-0.02631990548445675</v>
+        <v>0.05274982295068233</v>
       </c>
       <c r="E202" t="n">
-        <v>-830445.615083799</v>
+        <v>0.3409164930094827</v>
       </c>
       <c r="F202" t="n">
-        <v>584274270.0737431</v>
+        <v>1173130.580443857</v>
+      </c>
+      <c r="G202" t="n">
+        <v>521083281.2721123</v>
       </c>
     </row>
     <row r="203">
@@ -5708,13 +6316,16 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>-0.02631994679040869</v>
+        <v>0.05274981692826973</v>
       </c>
       <c r="E203" t="n">
-        <v>-830.4469273743015</v>
+        <v>0.3409165482103185</v>
       </c>
       <c r="F203" t="n">
-        <v>584274.2960893855</v>
+        <v>1173.130461120345</v>
+      </c>
+      <c r="G203" t="n">
+        <v>521083.268702859</v>
       </c>
     </row>
     <row r="204">
@@ -5734,13 +6345,16 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>0.961433061448132</v>
+        <v>-0.1756733291366344</v>
       </c>
       <c r="E204" t="n">
-        <v>6.116201117318443</v>
+        <v>0.001401655183539919</v>
       </c>
       <c r="F204" t="n">
-        <v>-42.6569832402237</v>
+        <v>-2.790651447176717</v>
+      </c>
+      <c r="G204" t="n">
+        <v>257.484941946725</v>
       </c>
     </row>
     <row r="205">
@@ -5760,13 +6374,16 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>-0.2042381492314543</v>
+        <v>0.06805114251410274</v>
       </c>
       <c r="E205" t="n">
-        <v>-0.00208566108007449</v>
+        <v>0.2463686081554203</v>
       </c>
       <c r="F205" t="n">
-        <v>0.1553817504655494</v>
+        <v>0.0008517426289239307</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.02644007487329816</v>
       </c>
     </row>
     <row r="206">
@@ -5786,13 +6403,16 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>-1.408671382629995e-17</v>
+        <v>0.1627048197217029</v>
       </c>
       <c r="E206" t="n">
-        <v>6.456982074558997e-19</v>
+        <v>0.00532033601155561</v>
       </c>
       <c r="F206" t="n">
-        <v>0.15</v>
+        <v>0.003756026064383969</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0.07691024033622362</v>
       </c>
     </row>
     <row r="207">
@@ -5812,13 +6432,16 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>0.1158314623139859</v>
+        <v>-0.1212177865043913</v>
       </c>
       <c r="E207" t="n">
-        <v>0.01262569832402234</v>
+        <v>0.03844061447837623</v>
       </c>
       <c r="F207" t="n">
-        <v>3.259385474860335</v>
+        <v>-0.0135348790666737</v>
+      </c>
+      <c r="G207" t="n">
+        <v>4.349541754224865</v>
       </c>
     </row>
     <row r="208">
@@ -5838,13 +6461,16 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>0.01484520243376335</v>
+        <v>-0.4400582932622757</v>
       </c>
       <c r="E208" t="n">
-        <v>0.08007448789571689</v>
+        <v>2.928785215687154e-15</v>
       </c>
       <c r="F208" t="n">
-        <v>43.53445065176909</v>
+        <v>-2.926615927057394</v>
+      </c>
+      <c r="G208" t="n">
+        <v>148.151371205566</v>
       </c>
     </row>
     <row r="209">
@@ -5864,13 +6490,16 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>0.1227239986560435</v>
+        <v>-0.4658646128850433</v>
       </c>
       <c r="E209" t="n">
-        <v>0.1616387337057731</v>
+        <v>3.179411341291868e-14</v>
       </c>
       <c r="F209" t="n">
-        <v>7.457914338919918</v>
+        <v>-0.8248417419584995</v>
+      </c>
+      <c r="G209" t="n">
+        <v>40.9732931776887</v>
       </c>
     </row>
     <row r="210">
@@ -5890,13 +6519,16 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>-0.09643005130054472</v>
+        <v>0.08097514746019091</v>
       </c>
       <c r="E210" t="n">
-        <v>-0.01281191806331472</v>
+        <v>0.1675755485709655</v>
       </c>
       <c r="F210" t="n">
-        <v>2.654487895716946</v>
+        <v>0.009254681052699727</v>
+      </c>
+      <c r="G210" t="n">
+        <v>2.018895353970581</v>
       </c>
     </row>
     <row r="211">
@@ -5916,13 +6548,16 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>0.004884756083155826</v>
+        <v>-0.2372896645093246</v>
       </c>
       <c r="E211" t="n">
-        <v>0.0004096834264432152</v>
+        <v>4.202275377381633e-05</v>
       </c>
       <c r="F211" t="n">
-        <v>0.5194785847299808</v>
+        <v>-0.01361552090507218</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0.9584413463066623</v>
       </c>
     </row>
     <row r="212">
@@ -5942,13 +6577,16 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>0.1056719143080093</v>
+        <v>-0.435391586273963</v>
       </c>
       <c r="E212" t="n">
-        <v>0.02312849162011176</v>
+        <v>6.157672084508758e-15</v>
       </c>
       <c r="F212" t="n">
-        <v>1.626927374301673</v>
+        <v>-0.1623944151112209</v>
+      </c>
+      <c r="G212" t="n">
+        <v>8.334538399053484</v>
       </c>
     </row>
     <row r="213">
@@ -5968,13 +6606,16 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>0.04543696099070037</v>
+        <v>-0.04472080008584524</v>
       </c>
       <c r="E213" t="n">
-        <v>0.06964618249534453</v>
+        <v>0.4464823720077087</v>
       </c>
       <c r="F213" t="n">
-        <v>13.81135940409683</v>
+        <v>-0.04737266535991567</v>
+      </c>
+      <c r="G213" t="n">
+        <v>17.52546839958325</v>
       </c>
     </row>
     <row r="214">
@@ -5994,13 +6635,16 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>-0.1121901380881712</v>
+        <v>0.1032695218834265</v>
       </c>
       <c r="E214" t="n">
-        <v>-0.01746741154562382</v>
+        <v>0.07810064315983095</v>
       </c>
       <c r="F214" t="n">
-        <v>1.851322160148975</v>
+        <v>0.01605802680605341</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0.3177166292888811</v>
       </c>
     </row>
     <row r="215">
@@ -6020,13 +6664,16 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>-0.00958959671115802</v>
+        <v>-0.1554010480165694</v>
       </c>
       <c r="E215" t="n">
-        <v>-0.000372439478584732</v>
+        <v>0.007807467114727832</v>
       </c>
       <c r="F215" t="n">
-        <v>0.3277467411545625</v>
+        <v>-0.01045194747096597</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0.7710810715357849</v>
       </c>
     </row>
     <row r="216">
@@ -6046,13 +6693,16 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>-0.03750409406120701</v>
+        <v>-0.2670464771209556</v>
       </c>
       <c r="E216" t="n">
-        <v>-0.02458100558659221</v>
+        <v>3.691446086445759e-06</v>
       </c>
       <c r="F216" t="n">
-        <v>16.33128491620112</v>
+        <v>-0.3050880879643526</v>
+      </c>
+      <c r="G216" t="n">
+        <v>23.06261367850394</v>
       </c>
     </row>
     <row r="217">
@@ -6072,13 +6722,16 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>0.00143289445298231</v>
+        <v>0.0463403297766365</v>
       </c>
       <c r="E217" t="n">
-        <v>0.0001489757914338819</v>
+        <v>0.4301755503030342</v>
       </c>
       <c r="F217" t="n">
-        <v>9.188901303538179</v>
+        <v>0.002978450381724311</v>
+      </c>
+      <c r="G217" t="n">
+        <v>9.064365431139523</v>
       </c>
     </row>
     <row r="218">
@@ -6098,13 +6751,16 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>0.1264300094257886</v>
+        <v>0.2047440581570011</v>
       </c>
       <c r="E218" t="n">
-        <v>1.64729981378026</v>
+        <v>0.0004298673236154931</v>
       </c>
       <c r="F218" t="n">
-        <v>139.7761638733706</v>
+        <v>1.713424217273832</v>
+      </c>
+      <c r="G218" t="n">
+        <v>137.8900430874641</v>
       </c>
     </row>
     <row r="219">
@@ -6124,13 +6780,16 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>-0.01413731844631153</v>
+        <v>-0.06990144313529972</v>
       </c>
       <c r="E219" t="n">
-        <v>-0.009310986964618267</v>
+        <v>0.2337281533261757</v>
       </c>
       <c r="F219" t="n">
-        <v>102.1936685288641</v>
+        <v>-0.03001112504193968</v>
+      </c>
+      <c r="G219" t="n">
+        <v>102.9041657101485</v>
       </c>
     </row>
     <row r="220">
@@ -6150,13 +6809,16 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>0.008413667893615516</v>
+        <v>-0.2399435947479706</v>
       </c>
       <c r="E220" t="n">
-        <v>0.6330353817504656</v>
+        <v>3.424078731431428e-05</v>
       </c>
       <c r="F220" t="n">
-        <v>268.9888640595902</v>
+        <v>-15.21577842919115</v>
+      </c>
+      <c r="G220" t="n">
+        <v>760.7979599675073</v>
       </c>
     </row>
     <row r="221">
@@ -6176,13 +6838,16 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>0.1372462965741955</v>
+        <v>0.1920345928903026</v>
       </c>
       <c r="E221" t="n">
-        <v>0.04953445065176917</v>
+        <v>0.0009731973893763186</v>
       </c>
       <c r="F221" t="n">
-        <v>20.3096834264432</v>
+        <v>0.07155638748109029</v>
+      </c>
+      <c r="G221" t="n">
+        <v>20.08573787282135</v>
       </c>
     </row>
     <row r="222">
@@ -6202,13 +6867,16 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>-0.125275725423647</v>
+        <v>0.193327929969362</v>
       </c>
       <c r="E222" t="n">
-        <v>-0.006156424581005593</v>
+        <v>0.0008975898782543212</v>
       </c>
       <c r="F222" t="n">
-        <v>1.313653631284916</v>
+        <v>0.01276389600145978</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0.5172041268607962</v>
       </c>
     </row>
     <row r="223">
@@ -6228,13 +6896,16 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>0.1654870308525242</v>
+        <v>0.04713895544228212</v>
       </c>
       <c r="E223" t="n">
-        <v>0.1386890130353822</v>
+        <v>0.4222626407515688</v>
       </c>
       <c r="F223" t="n">
-        <v>-2.637331471135954</v>
+        <v>0.105985419720167</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0.2958298751523039</v>
       </c>
     </row>
     <row r="224">
@@ -6254,13 +6925,16 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>-0.1593323025082788</v>
+        <v>0.1781118210639808</v>
       </c>
       <c r="E224" t="n">
-        <v>-0.01014897579143391</v>
+        <v>0.002250714505846061</v>
       </c>
       <c r="F224" t="n">
-        <v>1.586098696461825</v>
+        <v>0.01456182639048307</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0.547590192304297</v>
       </c>
     </row>
     <row r="225">
@@ -6280,13 +6954,16 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>-0.09882251984032958</v>
+        <v>-0.3192469764662743</v>
       </c>
       <c r="E225" t="n">
-        <v>-0.05892737430167606</v>
+        <v>2.425322993807592e-08</v>
       </c>
       <c r="F225" t="n">
-        <v>7.765089385474864</v>
+        <v>-0.2904886777681632</v>
+      </c>
+      <c r="G225" t="n">
+        <v>14.84539008281975</v>
       </c>
     </row>
     <row r="226">
@@ -6306,13 +6983,16 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>0.002804678921143229</v>
+        <v>0.3365355444133783</v>
       </c>
       <c r="E226" t="n">
-        <v>0.001117318435754182</v>
+        <v>3.656913886878124e-09</v>
       </c>
       <c r="F226" t="n">
-        <v>2.716759776536314</v>
+        <v>0.1026664783061681</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-0.2623368768652052</v>
       </c>
     </row>
     <row r="227">
@@ -6332,13 +7012,16 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>-0.03283664342994558</v>
+        <v>-0.3606834921560051</v>
       </c>
       <c r="E227" t="n">
-        <v>-0.6856610800744879</v>
+        <v>2.125177940533783e-10</v>
       </c>
       <c r="F227" t="n">
-        <v>144.0817504655493</v>
+        <v>-10.82265859071029</v>
+      </c>
+      <c r="G227" t="n">
+        <v>453.6695685955956</v>
       </c>
     </row>
     <row r="228">
@@ -6358,13 +7041,16 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>-0.04076102471637022</v>
+        <v>-0.2061469090219603</v>
       </c>
       <c r="E228" t="n">
-        <v>-1.093482309124767</v>
+        <v>0.0003915880243329742</v>
       </c>
       <c r="F228" t="n">
-        <v>180.4644320297951</v>
+        <v>-4.346877630424924</v>
+      </c>
+      <c r="G228" t="n">
+        <v>266.9326979109642</v>
       </c>
     </row>
     <row r="229">
@@ -6384,13 +7070,16 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>-0.01336093844596224</v>
+        <v>-0.2242962031683349</v>
       </c>
       <c r="E229" t="n">
-        <v>-0.03586592178770946</v>
+        <v>0.0001814037479680552</v>
       </c>
       <c r="F229" t="n">
-        <v>41.92201117318437</v>
+        <v>-0.3633638503509087</v>
+      </c>
+      <c r="G229" t="n">
+        <v>51.29785115360832</v>
       </c>
     </row>
     <row r="230">
@@ -6410,13 +7099,16 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>-0.03553777490678202</v>
+        <v>-0.0206668083597122</v>
       </c>
       <c r="E230" t="n">
-        <v>-0.1065176908752328</v>
+        <v>0.7250802383942047</v>
       </c>
       <c r="F230" t="n">
-        <v>49.93556797020484</v>
+        <v>-0.06785392643345278</v>
+      </c>
+      <c r="G230" t="n">
+        <v>49.62974800897067</v>
       </c>
     </row>
     <row r="231">
@@ -6436,13 +7128,16 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>0.006988884367291917</v>
+        <v>-0.3685966397393931</v>
       </c>
       <c r="E231" t="n">
-        <v>0.004655493482309107</v>
+        <v>3.043322521668977e-10</v>
       </c>
       <c r="F231" t="n">
-        <v>12.50316573556797</v>
+        <v>-0.1814795329883894</v>
+      </c>
+      <c r="G231" t="n">
+        <v>18.47058217357818</v>
       </c>
     </row>
     <row r="232">
@@ -6462,13 +7157,16 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>-0.03134702237269409</v>
+        <v>0.2573168588744763</v>
       </c>
       <c r="E232" t="n">
-        <v>-0.004357541899441345</v>
+        <v>8.452613446189262e-06</v>
       </c>
       <c r="F232" t="n">
-        <v>4.424636871508381</v>
+        <v>0.03564133806589082</v>
+      </c>
+      <c r="G232" t="n">
+        <v>3.274669339031241</v>
       </c>
     </row>
     <row r="233">
@@ -6488,13 +7186,16 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>0.1409354506336095</v>
+        <v>0.2960681069925307</v>
       </c>
       <c r="E233" t="n">
-        <v>1.46070763500931</v>
+        <v>6.015103919472516e-07</v>
       </c>
       <c r="F233" t="n">
-        <v>76.17728119180634</v>
+        <v>2.342886172247588</v>
+      </c>
+      <c r="G233" t="n">
+        <v>46.66555120459073</v>
       </c>
     </row>
     <row r="234">
@@ -6514,13 +7215,16 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>-0.1707670389291235</v>
+        <v>0.3854623343697441</v>
       </c>
       <c r="E234" t="n">
-        <v>-0.2812662942271879</v>
+        <v>8.851361636840619e-12</v>
       </c>
       <c r="F234" t="n">
-        <v>50.90433891992551</v>
+        <v>0.7807580921436004</v>
+      </c>
+      <c r="G234" t="n">
+        <v>13.04113660845153</v>
       </c>
     </row>
     <row r="235">
@@ -6540,13 +7244,16 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>0.009615437004257647</v>
+        <v>-0.2147263672074571</v>
       </c>
       <c r="E235" t="n">
-        <v>0.01378026070763507</v>
+        <v>0.0003436573013614591</v>
       </c>
       <c r="F235" t="n">
-        <v>27.27337057728119</v>
+        <v>-0.2001113654195903</v>
+      </c>
+      <c r="G235" t="n">
+        <v>33.92414875961339</v>
       </c>
     </row>
     <row r="236">
@@ -6566,13 +7273,16 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>0.06487739782948618</v>
+        <v>-0.3076707925133244</v>
       </c>
       <c r="E236" t="n">
-        <v>0.03527001862197391</v>
+        <v>2.499448835779908e-07</v>
       </c>
       <c r="F236" t="n">
-        <v>30.12238361266294</v>
+        <v>-0.1317959636217633</v>
+      </c>
+      <c r="G236" t="n">
+        <v>36.32472033033618</v>
       </c>
     </row>
     <row r="237">
@@ -6592,13 +7302,16 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>-0.01149716426183899</v>
+        <v>-0.1096903620439816</v>
       </c>
       <c r="E237" t="n">
-        <v>-0.03761638733705751</v>
+        <v>0.06985158555512638</v>
       </c>
       <c r="F237" t="n">
-        <v>89.30242085661079</v>
+        <v>-0.2541969938568225</v>
+      </c>
+      <c r="G237" t="n">
+        <v>93.74653158185899</v>
       </c>
     </row>
     <row r="238">
@@ -6618,13 +7331,16 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>-0.01764177617234823</v>
+        <v>0.03282346302325771</v>
       </c>
       <c r="E238" t="n">
-        <v>-0.02506517690875242</v>
+        <v>0.5764126691020628</v>
       </c>
       <c r="F238" t="n">
-        <v>10.96735567970206</v>
+        <v>0.02781289916238435</v>
+      </c>
+      <c r="G238" t="n">
+        <v>7.984688498825692</v>
       </c>
     </row>
     <row r="239">
@@ -6644,13 +7360,16 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>-0.1218544084301135</v>
+        <v>-0.1395836873699244</v>
       </c>
       <c r="E239" t="n">
-        <v>-0.02040968342644322</v>
+        <v>0.01700166909978102</v>
       </c>
       <c r="F239" t="n">
-        <v>12.07052141527002</v>
+        <v>-0.02611147409748828</v>
+      </c>
+      <c r="G239" t="n">
+        <v>12.45044456020766</v>
       </c>
     </row>
     <row r="240">
@@ -6670,13 +7389,16 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>-0.1605633407574413</v>
+        <v>-0.009376104816542477</v>
       </c>
       <c r="E240" t="n">
-        <v>-0.05325884543761646</v>
+        <v>0.8732472022491017</v>
       </c>
       <c r="F240" t="n">
-        <v>140.9677839851024</v>
+        <v>-0.003746608039461505</v>
+      </c>
+      <c r="G240" t="n">
+        <v>138.6899336029243</v>
       </c>
     </row>
     <row r="241">
@@ -6696,13 +7418,16 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>0.1645482539727407</v>
+        <v>-0.3923426162439496</v>
       </c>
       <c r="E241" t="n">
-        <v>0.3227560521415269</v>
+        <v>3.488083433477362e-12</v>
       </c>
       <c r="F241" t="n">
-        <v>33.60467411545624</v>
+        <v>-0.921957242166851</v>
+      </c>
+      <c r="G241" t="n">
+        <v>78.77547104840272</v>
       </c>
     </row>
     <row r="242">
@@ -6722,13 +7447,16 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>-0.05845784914648726</v>
+        <v>0.06125963897709429</v>
       </c>
       <c r="E242" t="n">
-        <v>-2.738175046554937</v>
+        <v>0.3123319957659982</v>
       </c>
       <c r="F242" t="n">
-        <v>254.4940409683427</v>
+        <v>2.312860898082555</v>
+      </c>
+      <c r="G242" t="n">
+        <v>36.16981418607448</v>
       </c>
     </row>
     <row r="243">
@@ -6748,13 +7476,16 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>-0.1367814020817286</v>
+        <v>-0.1613721170979754</v>
       </c>
       <c r="E243" t="n">
-        <v>-0.03962756052141519</v>
+        <v>0.005712603459892976</v>
       </c>
       <c r="F243" t="n">
-        <v>15.30225325884544</v>
+        <v>-0.06660368362499769</v>
+      </c>
+      <c r="G243" t="n">
+        <v>16.57826820180473</v>
       </c>
     </row>
     <row r="244">
@@ -6774,13 +7505,16 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>0.04614483346592536</v>
+        <v>0.2614340181204666</v>
       </c>
       <c r="E244" t="n">
-        <v>0.6435754189944147</v>
+        <v>5.976909406064302e-06</v>
       </c>
       <c r="F244" t="n">
-        <v>206.0536312849162</v>
+        <v>3.092178918928461</v>
+      </c>
+      <c r="G244" t="n">
+        <v>135.2341159123418</v>
       </c>
     </row>
     <row r="245">
@@ -6800,13 +7534,16 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>-0.01093176936901236</v>
+        <v>-0.0914158823098619</v>
       </c>
       <c r="E245" t="n">
-        <v>-0.00526256983240224</v>
+        <v>0.1311847125586051</v>
       </c>
       <c r="F245" t="n">
-        <v>4.937061452513968</v>
+        <v>-0.02313522582231419</v>
+      </c>
+      <c r="G245" t="n">
+        <v>5.450726930544855</v>
       </c>
     </row>
     <row r="246">
@@ -6826,13 +7563,16 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>-0.009628890333179461</v>
+        <v>0.2179785876623662</v>
       </c>
       <c r="E246" t="n">
-        <v>-0.006480446927374334</v>
+        <v>0.0002774367927301961</v>
       </c>
       <c r="F246" t="n">
-        <v>13.93279329608939</v>
+        <v>0.09650211341193965</v>
+      </c>
+      <c r="G246" t="n">
+        <v>10.66530876785735</v>
       </c>
     </row>
     <row r="247">
@@ -6852,13 +7592,16 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>0.1292343325502296</v>
+        <v>-0.2986649300041869</v>
       </c>
       <c r="E247" t="n">
-        <v>1.495716945996277</v>
+        <v>1.983435865520704e-07</v>
       </c>
       <c r="F247" t="n">
-        <v>67.5690875232774</v>
+        <v>-6.276321908091842</v>
+      </c>
+      <c r="G247" t="n">
+        <v>321.5412774373552</v>
       </c>
     </row>
     <row r="248">
@@ -6878,13 +7621,16 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>0.1904026379989575</v>
+        <v>0.4679800985555334</v>
       </c>
       <c r="E248" t="n">
-        <v>0.01333333333333333</v>
+        <v>2.685059550523084e-17</v>
       </c>
       <c r="F248" t="n">
-        <v>6.806666666666669</v>
+        <v>0.05199456109060724</v>
+      </c>
+      <c r="G248" t="n">
+        <v>5.553147680517053</v>
       </c>
     </row>
     <row r="249">
@@ -6904,13 +7650,16 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>0.03267956726409716</v>
+        <v>-0.3787339015335485</v>
       </c>
       <c r="E249" t="n">
-        <v>0.009571694599627548</v>
+        <v>2.155201603757422e-11</v>
       </c>
       <c r="F249" t="n">
-        <v>5.036908752327746</v>
+        <v>-0.1632646994767109</v>
+      </c>
+      <c r="G249" t="n">
+        <v>11.44837450776104</v>
       </c>
     </row>
     <row r="250">
@@ -6930,13 +7679,16 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>-0.04121265531397161</v>
+        <v>0.1505516626480855</v>
       </c>
       <c r="E250" t="n">
-        <v>-0.220983240223464</v>
+        <v>0.009986581438410505</v>
       </c>
       <c r="F250" t="n">
-        <v>17.07325139664806</v>
+        <v>0.6238876135313467</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-10.36634343710818</v>
       </c>
     </row>
     <row r="251">
@@ -6956,13 +7708,16 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>0.07919206374092477</v>
+        <v>-0.3085302132418399</v>
       </c>
       <c r="E251" t="n">
-        <v>0.1649981378026073</v>
+        <v>7.390676905796101e-08</v>
       </c>
       <c r="F251" t="n">
-        <v>10.62763873370577</v>
+        <v>-0.6085795558223988</v>
+      </c>
+      <c r="G251" t="n">
+        <v>36.77682627275775</v>
       </c>
     </row>
     <row r="252">
@@ -6982,13 +7737,16 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>-0.09452893734371015</v>
+        <v>0.01905302043133375</v>
       </c>
       <c r="E252" t="n">
-        <v>-426.5617839851027</v>
+        <v>0.7457782230459569</v>
       </c>
       <c r="F252" t="n">
-        <v>70854.96790689015</v>
+        <v>64.75095386933674</v>
+      </c>
+      <c r="G252" t="n">
+        <v>54907.53940300022</v>
       </c>
     </row>
     <row r="253">
@@ -7008,13 +7766,16 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>-0.004360293919546555</v>
+        <v>0.1356349237371555</v>
       </c>
       <c r="E253" t="n">
-        <v>-0.001348230912476728</v>
+        <v>0.0204214360703312</v>
       </c>
       <c r="F253" t="n">
-        <v>3.860443202979516</v>
+        <v>0.02999431975371861</v>
+      </c>
+      <c r="G253" t="n">
+        <v>2.7074973070335</v>
       </c>
     </row>
     <row r="254">
@@ -7034,13 +7795,16 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>0.0254110206617665</v>
+        <v>-0.2881739281253791</v>
       </c>
       <c r="E254" t="n">
-        <v>0.7556573556797019</v>
+        <v>5.446535496354082e-07</v>
       </c>
       <c r="F254" t="n">
-        <v>424.8235270018621</v>
+        <v>-10.82700742258088</v>
+      </c>
+      <c r="G254" t="n">
+        <v>798.7771311960298</v>
       </c>
     </row>
     <row r="255">
@@ -7060,13 +7824,16 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>-0.03745991073401957</v>
+        <v>0.1478610451432683</v>
       </c>
       <c r="E255" t="n">
-        <v>-0.8197355679702064</v>
+        <v>0.01141492999224225</v>
       </c>
       <c r="F255" t="n">
-        <v>68.22529981378032</v>
+        <v>1.991171749456989</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-30.15264396334025</v>
       </c>
     </row>
     <row r="256">
@@ -7086,13 +7853,16 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>-0.07439787539182741</v>
+        <v>0.1859107006711818</v>
       </c>
       <c r="E256" t="n">
-        <v>-16.65480819366855</v>
+        <v>0.00141741305070378</v>
       </c>
       <c r="F256" t="n">
-        <v>2341.863210428306</v>
+        <v>27.8636654952998</v>
+      </c>
+      <c r="G256" t="n">
+        <v>817.7231237969953</v>
       </c>
     </row>
     <row r="257">
@@ -7112,13 +7882,16 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>-0.03161152815914478</v>
+        <v>0.08561468000760128</v>
       </c>
       <c r="E257" t="n">
-        <v>-0.6320297951582871</v>
+        <v>0.1444578136360207</v>
       </c>
       <c r="F257" t="n">
-        <v>199.5862197392924</v>
+        <v>1.400377898250012</v>
+      </c>
+      <c r="G257" t="n">
+        <v>123.2196092108284</v>
       </c>
     </row>
     <row r="258">
@@ -7138,13 +7911,16 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>-0.1244994808905713</v>
+        <v>0.3017708096946153</v>
       </c>
       <c r="E258" t="n">
-        <v>-0.005338614525139671</v>
+        <v>2.116223019663977e-06</v>
       </c>
       <c r="F258" t="n">
-        <v>1.066786782122906</v>
+        <v>0.01214900874406376</v>
+      </c>
+      <c r="G258" t="n">
+        <v>0.5059738504254099</v>
       </c>
     </row>
     <row r="259">
@@ -7164,13 +7940,16 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>-0.1998489316654359</v>
+        <v>0.4405134133799588</v>
       </c>
       <c r="E259" t="n">
-        <v>-0.08193668528864054</v>
+        <v>4.229071261704476e-13</v>
       </c>
       <c r="F259" t="n">
-        <v>17.10428305400372</v>
+        <v>0.2229940979513731</v>
+      </c>
+      <c r="G259" t="n">
+        <v>7.07926326703483</v>
       </c>
     </row>
     <row r="260">
@@ -7190,13 +7969,16 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>-0.193316843030472</v>
+        <v>-0.2289189888927207</v>
       </c>
       <c r="E260" t="n">
-        <v>-96.29856238361286</v>
+        <v>0.0001080283691772524</v>
       </c>
       <c r="F260" t="n">
-        <v>30063.77289757915</v>
+        <v>-378.7715633389609</v>
+      </c>
+      <c r="G260" t="n">
+        <v>40230.95398729622</v>
       </c>
     </row>
     <row r="261">
@@ -7216,13 +7998,16 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>-0.1485408839245251</v>
+        <v>0.04651309528983229</v>
       </c>
       <c r="E261" t="n">
-        <v>-1.198507985102419</v>
+        <v>0.4373673807427323</v>
       </c>
       <c r="F261" t="n">
-        <v>269.5543248901303</v>
+        <v>0.3806507625415528</v>
+      </c>
+      <c r="G261" t="n">
+        <v>212.008527168029</v>
       </c>
     </row>
     <row r="262">
@@ -7242,13 +8027,16 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>-0.1191907075755725</v>
+        <v>0.0920858393006101</v>
       </c>
       <c r="E262" t="n">
-        <v>-0.0008366383764632779</v>
+        <v>0.1341368504277099</v>
       </c>
       <c r="F262" t="n">
-        <v>0.07223121304740818</v>
+        <v>0.0006160123970528863</v>
+      </c>
+      <c r="G262" t="n">
+        <v>0.03186624911816896</v>
       </c>
     </row>
     <row r="263">
@@ -7268,13 +8056,16 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>-0.08870156547063474</v>
+        <v>0.09726290989162752</v>
       </c>
       <c r="E263" t="n">
-        <v>-0.0006232596225751584</v>
+        <v>0.1135140677515302</v>
       </c>
       <c r="F263" t="n">
-        <v>0.05313825091180011</v>
+        <v>0.0005270650930192729</v>
+      </c>
+      <c r="G263" t="n">
+        <v>0.01898779214439374</v>
       </c>
     </row>
     <row r="264">
@@ -7294,13 +8085,16 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>-0.06431598996112203</v>
+        <v>-0.02771863944421024</v>
       </c>
       <c r="E264" t="n">
-        <v>-0.0001264140817193647</v>
+        <v>0.6526853594258969</v>
       </c>
       <c r="F264" t="n">
-        <v>0.01176474224857546</v>
+        <v>-3.951149405561635e-05</v>
+      </c>
+      <c r="G264" t="n">
+        <v>0.00990076635993435</v>
       </c>
     </row>
     <row r="265">
@@ -7320,13 +8114,16 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>-0.07905064804989012</v>
+        <v>-0.1132629499506497</v>
       </c>
       <c r="E265" t="n">
-        <v>-0.003815254412192873</v>
+        <v>0.06510987775499545</v>
       </c>
       <c r="F265" t="n">
-        <v>0.3292185726176223</v>
+        <v>-0.00472208257850095</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.3783690740361533</v>
       </c>
     </row>
     <row r="266">
@@ -7346,13 +8143,16 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>-0.08486199215790879</v>
+        <v>-0.1007945151344541</v>
       </c>
       <c r="E266" t="n">
-        <v>-2.208264378676247e-05</v>
+        <v>0.1009330556020056</v>
       </c>
       <c r="F266" t="n">
-        <v>0.001673096166405265</v>
+        <v>-3.596115893016419e-05</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.002380883804894603</v>
       </c>
     </row>
     <row r="267">
@@ -7372,13 +8172,16 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>-0.07612078165692145</v>
+        <v>-0.1235843144972713</v>
       </c>
       <c r="E267" t="n">
-        <v>-0.003567623496973931</v>
+        <v>0.04402705355275228</v>
       </c>
       <c r="F267" t="n">
-        <v>0.3086355142259434</v>
+        <v>-0.005048178912849807</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.3756596971859871</v>
       </c>
     </row>
     <row r="268">
@@ -7398,13 +8201,16 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>-0.007294599391485954</v>
+        <v>-0.4121193148669954</v>
       </c>
       <c r="E268" t="n">
-        <v>-0.000287613896001549</v>
+        <v>2.496061722180818e-12</v>
       </c>
       <c r="F268" t="n">
-        <v>0.151350123048271</v>
+        <v>-0.01408090919743734</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.605299914188228</v>
       </c>
     </row>
     <row r="269">
@@ -7424,13 +8230,16 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>-0.001868789799434579</v>
+        <v>-0.4098767354076498</v>
       </c>
       <c r="E269" t="n">
-        <v>-7.625560402739419e-05</v>
+        <v>3.362661168265216e-12</v>
       </c>
       <c r="F269" t="n">
-        <v>0.1276719901978505</v>
+        <v>-0.01430414338424239</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.5968894872045262</v>
       </c>
     </row>
     <row r="270">
@@ -7450,13 +8259,16 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>0.1060586153202476</v>
+        <v>-0.3426817292289457</v>
       </c>
       <c r="E270" t="n">
-        <v>9.930093542473573e-05</v>
+        <v>9.619765668153521e-09</v>
       </c>
       <c r="F270" t="n">
-        <v>0.0005172568866283031</v>
+        <v>-0.0004615395508995967</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.0194644991972314</v>
       </c>
     </row>
     <row r="271">
@@ -7476,13 +8288,16 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>-0.00772722692845545</v>
+        <v>0.07939074271057026</v>
       </c>
       <c r="E271" t="n">
-        <v>-0.0003865892664984088</v>
+        <v>0.1967854523762955</v>
       </c>
       <c r="F271" t="n">
-        <v>0.7060018032886687</v>
+        <v>0.002919957469563818</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.5859738927783527</v>
       </c>
     </row>
     <row r="272">
@@ -7502,13 +8317,16 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>0.01417356161665041</v>
+        <v>-0.05617889571845171</v>
       </c>
       <c r="E272" t="n">
-        <v>0.0007795176415208211</v>
+        <v>0.361423479290309</v>
       </c>
       <c r="F272" t="n">
-        <v>0.1789462517337869</v>
+        <v>-0.002063569925967044</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.2670445729407578</v>
       </c>
     </row>
     <row r="273">
@@ -7528,13 +8346,16 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>-0.09580480423326604</v>
+        <v>-0.1279773876847674</v>
       </c>
       <c r="E273" t="n">
-        <v>-8.453552299839858e-05</v>
+        <v>0.03697831756215325</v>
       </c>
       <c r="F273" t="n">
-        <v>0.006919014475803051</v>
+        <v>-0.0001492038524450663</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.009711897256174825</v>
       </c>
     </row>
     <row r="274">
@@ -7554,13 +8375,16 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>0.03828452877658384</v>
+        <v>-0.2795910689262797</v>
       </c>
       <c r="E274" t="n">
-        <v>0.0005691170601627743</v>
+        <v>3.635386138747775e-06</v>
       </c>
       <c r="F274" t="n">
-        <v>0.9101473628688052</v>
+        <v>-0.003239475461477466</v>
+      </c>
+      <c r="G274" t="n">
+        <v>1.031987704897495</v>
       </c>
     </row>
     <row r="275">
@@ -7580,13 +8404,16 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>0.0334236130108059</v>
+        <v>-0.1611817431036406</v>
       </c>
       <c r="E275" t="n">
-        <v>0.002149426600329371</v>
+        <v>0.008447084504807148</v>
       </c>
       <c r="F275" t="n">
-        <v>0.7788165806899818</v>
+        <v>-0.006952420314742175</v>
+      </c>
+      <c r="G275" t="n">
+        <v>1.087609563426522</v>
       </c>
     </row>
     <row r="276">
@@ -7606,13 +8433,16 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>0.146798273455582</v>
+        <v>0.06123503418470407</v>
       </c>
       <c r="E276" t="n">
-        <v>0.000799388699404874</v>
+        <v>0.3197635947258568</v>
       </c>
       <c r="F276" t="n">
-        <v>0.001367652771288412</v>
+        <v>0.0004166628443731622</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.01849836259893188</v>
       </c>
     </row>
     <row r="277">
@@ -7632,13 +8462,16 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>-0.01748434712243568</v>
+        <v>-0.3514480887862099</v>
       </c>
       <c r="E277" t="n">
-        <v>-0.0003538562269864294</v>
+        <v>3.768637164910092e-09</v>
       </c>
       <c r="F277" t="n">
-        <v>0.1124386549407721</v>
+        <v>-0.01391517798597096</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.574288596033804</v>
       </c>
     </row>
     <row r="278">
@@ -7658,13 +8491,16 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>-0.1161030196960713</v>
+        <v>-0.2436738698930256</v>
       </c>
       <c r="E278" t="n">
-        <v>-0.0006727272773188519</v>
+        <v>8.720916843904309e-05</v>
       </c>
       <c r="F278" t="n">
-        <v>0.05436669326762313</v>
+        <v>-0.001578093710907939</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.08295608568442943</v>
       </c>
     </row>
     <row r="279">
@@ -7684,13 +8520,16 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>-0.1119246792546374</v>
+        <v>0.2287425463035498</v>
       </c>
       <c r="E279" t="n">
-        <v>-0.008464094523738433</v>
+        <v>0.0001678052862525969</v>
       </c>
       <c r="F279" t="n">
-        <v>0.7934729093424873</v>
+        <v>0.01361480842196421</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05477683806363526</v>
       </c>
     </row>
     <row r="280">
@@ -7710,13 +8549,16 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>-0.1225589771271361</v>
+        <v>0.07430977155516738</v>
       </c>
       <c r="E280" t="n">
-        <v>-0.01031291267963247</v>
+        <v>0.227078499943051</v>
       </c>
       <c r="F280" t="n">
-        <v>0.9503855742520131</v>
+        <v>0.004857892772022324</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.4212353709977114</v>
       </c>
     </row>
     <row r="281">
@@ -7736,13 +8578,16 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>-0.1419039459510667</v>
+        <v>0.08378627796184256</v>
       </c>
       <c r="E281" t="n">
-        <v>-0.0005437585144033412</v>
+        <v>0.1730482863005148</v>
       </c>
       <c r="F281" t="n">
-        <v>0.04477383038035403</v>
+        <v>0.0003596071741931262</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.0143522770771978</v>
       </c>
     </row>
     <row r="282">
@@ -7762,13 +8607,16 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>-0.1100127083529352</v>
+        <v>0.2524142538387453</v>
       </c>
       <c r="E282" t="n">
-        <v>-0.01107390170508155</v>
+        <v>3.113477760990961e-05</v>
       </c>
       <c r="F282" t="n">
-        <v>1.413164196250217</v>
+        <v>0.02167290624025135</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.3543266385195056</v>
       </c>
     </row>
     <row r="283">
@@ -7788,13 +8636,16 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>-0.1748533285116902</v>
+        <v>-0.4211366028419419</v>
       </c>
       <c r="E283" t="n">
-        <v>-0.0002848576808513339</v>
+        <v>7.36217175960248e-13</v>
       </c>
       <c r="F283" t="n">
-        <v>0.02367531670074269</v>
+        <v>-0.001398980523647686</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.0616479774911359</v>
       </c>
     </row>
     <row r="284">
@@ -7814,13 +8665,16 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>-0.04866108837897105</v>
+        <v>-0.1717185620683169</v>
       </c>
       <c r="E284" t="n">
-        <v>-0.000290616216032829</v>
+        <v>0.004979675012841365</v>
       </c>
       <c r="F284" t="n">
-        <v>0.02347279213688491</v>
+        <v>-0.001721174549488814</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.07178166962647037</v>
       </c>
     </row>
     <row r="285">
@@ -7840,13 +8694,16 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>-0.02790301138253326</v>
+        <v>-0.03074948965375545</v>
       </c>
       <c r="E285" t="n">
-        <v>-0.0008675512901621732</v>
+        <v>0.6175925272660445</v>
       </c>
       <c r="F285" t="n">
-        <v>0.178377844170039</v>
+        <v>-0.0007845516560759186</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.1790144986242269</v>
       </c>
     </row>
     <row r="286">
@@ -7866,13 +8723,16 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>0.02311337984137436</v>
+        <v>0.02246423063356169</v>
       </c>
       <c r="E286" t="n">
-        <v>0.0008702334050549487</v>
+        <v>0.715334539688587</v>
       </c>
       <c r="F286" t="n">
-        <v>0.2724649458611226</v>
+        <v>0.0008951044303621754</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.308337911639361</v>
       </c>
     </row>
     <row r="287">
@@ -7892,13 +8752,16 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>-0.1241341807593762</v>
+        <v>0.185151275383382</v>
       </c>
       <c r="E287" t="n">
-        <v>-0.02429686869235641</v>
+        <v>0.002431319593698584</v>
       </c>
       <c r="F287" t="n">
-        <v>2.628950252494894</v>
+        <v>0.02820461372848409</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.8759837653951047</v>
       </c>
     </row>
     <row r="288">
@@ -7918,13 +8781,16 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>0.02146390335658366</v>
+        <v>-0.3482363492197517</v>
       </c>
       <c r="E288" t="n">
-        <v>0.0003265438603307055</v>
+        <v>5.330223036473243e-09</v>
       </c>
       <c r="F288" t="n">
-        <v>0.05126153272916787</v>
+        <v>-0.009478758739668938</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.3833376735276605</v>
       </c>
     </row>
     <row r="289">
@@ -7944,13 +8810,16 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>0.1195990398319702</v>
+        <v>-0.4302522558044007</v>
       </c>
       <c r="E289" t="n">
-        <v>0.0009716507988745596</v>
+        <v>2.0637818166718e-13</v>
       </c>
       <c r="F289" t="n">
-        <v>0.01368838151412841</v>
+        <v>-0.00660320807590985</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.2662394249660122</v>
       </c>
     </row>
     <row r="290">
@@ -7970,13 +8839,16 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>-0.1206466942740856</v>
+        <v>-0.1538592630800243</v>
       </c>
       <c r="E290" t="n">
-        <v>-0.002523110860862994</v>
+        <v>0.01198691860682478</v>
       </c>
       <c r="F290" t="n">
-        <v>0.410329017179961</v>
+        <v>-0.002968841426596069</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.4139079568103028</v>
       </c>
     </row>
     <row r="291">
@@ -7996,13 +8868,16 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>0.1425550855825588</v>
+        <v>0.1968367340930464</v>
       </c>
       <c r="E291" t="n">
-        <v>0.003138207970124493</v>
+        <v>0.001251753030359424</v>
       </c>
       <c r="F291" t="n">
-        <v>0.4844917713529835</v>
+        <v>0.004199807256142148</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.4666193793324607</v>
       </c>
     </row>
     <row r="292">
@@ -8022,13 +8897,16 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>0.02001312476885916</v>
+        <v>0.2640249430145305</v>
       </c>
       <c r="E292" t="n">
-        <v>0.0008626741712595677</v>
+        <v>1.279906749504808e-05</v>
       </c>
       <c r="F292" t="n">
-        <v>0.7545643091555032</v>
+        <v>0.01054223174972932</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.4193957379347526</v>
       </c>
     </row>
     <row r="293">
@@ -8048,13 +8926,16 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>0.1040893371505251</v>
+        <v>0.00667298826336611</v>
       </c>
       <c r="E293" t="n">
-        <v>0.005708843115956474</v>
+        <v>0.913740424558048</v>
       </c>
       <c r="F293" t="n">
-        <v>0.4528538451603664</v>
+        <v>0.0002552604476578156</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.6276773445638634</v>
       </c>
     </row>
     <row r="294">
@@ -8074,13 +8955,16 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>-0.05390278256579398</v>
+        <v>0.0745697113998222</v>
       </c>
       <c r="E294" t="n">
-        <v>-0.0005843893677759047</v>
+        <v>0.2254526905217593</v>
       </c>
       <c r="F294" t="n">
-        <v>0.05759392005844662</v>
+        <v>0.0006068318524801666</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.02099525895194588</v>
       </c>
     </row>
     <row r="295">
@@ -8100,13 +8984,16 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>0.06525110307128303</v>
+        <v>-0.2192583435334003</v>
       </c>
       <c r="E295" t="n">
-        <v>0.0003684443738623375</v>
+        <v>0.0003144497899363295</v>
       </c>
       <c r="F295" t="n">
-        <v>0.01315179658355447</v>
+        <v>-0.0008798060778623874</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05327477774156704</v>
       </c>
     </row>
     <row r="296">
@@ -8126,13 +9013,16 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>-0.07352873328191038</v>
+        <v>0.2264933608713439</v>
       </c>
       <c r="E296" t="n">
-        <v>-0.0001234939946852411</v>
+        <v>0.0001952202455801694</v>
       </c>
       <c r="F296" t="n">
-        <v>0.01229456947932984</v>
+        <v>0.0002911226745584507</v>
+      </c>
+      <c r="G296" t="n">
+        <v>-0.0005000436765002746</v>
       </c>
     </row>
     <row r="297">
@@ -8152,13 +9042,16 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>-0.02934866901900705</v>
+        <v>-0.01051318376960783</v>
       </c>
       <c r="E297" t="n">
-        <v>-0.008993898659217882</v>
+        <v>0.8770619084375323</v>
       </c>
       <c r="F297" t="n">
-        <v>6.008125700111732</v>
+        <v>-0.003776400114360031</v>
+      </c>
+      <c r="G297" t="n">
+        <v>5.844669958820846</v>
       </c>
     </row>
     <row r="298">
@@ -8178,13 +9071,16 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>0.03594852913490557</v>
+        <v>-0.002013997611030514</v>
       </c>
       <c r="E298" t="n">
-        <v>0.1100530355307261</v>
+        <v>0.9763045040083007</v>
       </c>
       <c r="F298" t="n">
-        <v>28.80135505296089</v>
+        <v>-0.008046164087415066</v>
+      </c>
+      <c r="G298" t="n">
+        <v>34.83018624712655</v>
       </c>
     </row>
     <row r="299">
@@ -8204,13 +9100,16 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>0.04897955885826882</v>
+        <v>0.1093812988997991</v>
       </c>
       <c r="E299" t="n">
-        <v>0.2935742919925504</v>
+        <v>0.1056619628557566</v>
       </c>
       <c r="F299" t="n">
-        <v>185.051614246555</v>
+        <v>0.7393062343481822</v>
+      </c>
+      <c r="G299" t="n">
+        <v>170.721161508649</v>
       </c>
     </row>
     <row r="300">
@@ -8230,13 +9129,16 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>0.0558803468008658</v>
+        <v>0.04293495320316866</v>
       </c>
       <c r="E300" t="n">
-        <v>0.006740215857914312</v>
+        <v>0.5264119845697436</v>
       </c>
       <c r="F300" t="n">
-        <v>0.9210491706353823</v>
+        <v>0.02897115250889061</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.5847992725431482</v>
       </c>
     </row>
     <row r="301">
@@ -8256,13 +9158,16 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>-0.03688399718207115</v>
+        <v>-0.05882750750256031</v>
       </c>
       <c r="E301" t="n">
-        <v>-0.004825349040223461</v>
+        <v>0.3852112176210865</v>
       </c>
       <c r="F301" t="n">
-        <v>1.084664590996648</v>
+        <v>-0.007518004188934765</v>
+      </c>
+      <c r="G301" t="n">
+        <v>1.151161995565774</v>
       </c>
     </row>
   </sheetData>
